--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914172C4-F1F5-41A9-BC2C-6E86A8849A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C70BD67-059F-4F50-A8DB-CD30DBCA57A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,7 +682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162D824C-0FDB-4E6C-84C3-78DD2E8641E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0B791C-0A90-43EF-923A-A4B5B9D728EB}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C70BD67-059F-4F50-A8DB-CD30DBCA57A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910B6B18-7997-4B40-826B-F8F4C70DAEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="historical_data" sheetId="4" r:id="rId1"/>
-    <sheet name="Veda" sheetId="1" r:id="rId2"/>
-    <sheet name="iamc_data" sheetId="2" r:id="rId3"/>
-    <sheet name="base_year_data" sheetId="3" r:id="rId4"/>
+    <sheet name="Veda" sheetId="1" r:id="rId1"/>
+    <sheet name="iamc_data" sheetId="2" r:id="rId2"/>
+    <sheet name="historical_data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="54">
   <si>
     <t>~Inputcell: 3</t>
   </si>
@@ -107,9 +106,6 @@
     <t>Downscaling[MESSAGEix-GLOBIOM 1.1-M-R12]</t>
   </si>
   <si>
-    <t>MEX</t>
-  </si>
-  <si>
     <t>Final Energy|Industry|Electricity</t>
   </si>
   <si>
@@ -183,9 +179,6 @@
   </si>
   <si>
     <t>hydro</t>
-  </si>
-  <si>
-    <t>nuclear</t>
   </si>
   <si>
     <t>solar</t>
@@ -210,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,11 +217,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
     </font>
     <font>
       <sz val="11"/>
@@ -276,27 +264,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -330,21 +303,18 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -682,226 +652,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0B791C-0A90-43EF-923A-A4B5B9D728EB}">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
-        <v>3.1</v>
-      </c>
-      <c r="D2">
-        <v>3.3</v>
-      </c>
-      <c r="E2">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F2">
-        <v>23.5</v>
-      </c>
-      <c r="G2">
-        <v>0.59</v>
-      </c>
-      <c r="H2">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3">
-        <v>17.2</v>
-      </c>
-      <c r="F3">
-        <v>22.6</v>
-      </c>
-      <c r="H3">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4">
-        <v>111.9</v>
-      </c>
-      <c r="F4">
-        <v>141.5</v>
-      </c>
-      <c r="H4">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5">
-        <v>6.3</v>
-      </c>
-      <c r="E5">
-        <v>5.8</v>
-      </c>
-      <c r="G5">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6">
-        <v>20.7</v>
-      </c>
-      <c r="D6">
-        <v>23.4</v>
-      </c>
-      <c r="E6">
-        <v>30.3</v>
-      </c>
-      <c r="F6">
-        <v>28.4</v>
-      </c>
-      <c r="G6">
-        <v>0.15</v>
-      </c>
-      <c r="H6">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7">
-        <v>0.6</v>
-      </c>
-      <c r="D7">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>16</v>
-      </c>
-      <c r="F7">
-        <v>15.6</v>
-      </c>
-      <c r="G7">
-        <v>0.03</v>
-      </c>
-      <c r="H7">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8">
-        <v>5.4</v>
-      </c>
-      <c r="D8">
-        <v>5.4</v>
-      </c>
-      <c r="E8">
-        <v>28.1</v>
-      </c>
-      <c r="F8">
-        <v>28.1</v>
-      </c>
-      <c r="G8">
-        <v>0.13</v>
-      </c>
-      <c r="H8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>16.8</v>
-      </c>
-      <c r="E9">
-        <v>20.5</v>
-      </c>
-      <c r="F9">
-        <v>20.3</v>
-      </c>
-      <c r="G9">
-        <v>0.2</v>
-      </c>
-      <c r="H9">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA19"/>
   <sheetViews>
@@ -967,12 +717,12 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="5">
-        <f>SUM(base_year_data!F2:F16)</f>
-        <v>340.2</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>54</v>
+      <c r="Q10" s="4">
+        <f>SUM(historical_data!F2:F16)</f>
+        <v>280</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
@@ -1000,7 +750,7 @@
       </c>
     </row>
     <row r="14" spans="2:27" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1033,31 +783,31 @@
         <f>iamc_data!L1</f>
         <v>2050</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="5">
         <v>2022</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="5">
         <v>2025</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="5">
         <v>2030</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="5">
         <v>2035</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="5">
         <v>2040</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="5">
         <v>2045</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="5">
         <v>2050</v>
       </c>
-      <c r="Y15" s="6" t="s">
+      <c r="Y15" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1095,37 +845,37 @@
       </c>
       <c r="R16" s="1">
         <f>$Q$10*G16/SUM($G$16:$G$18)</f>
-        <v>16.412233336283968</v>
+        <v>13.508010976365405</v>
       </c>
       <c r="S16" s="1">
         <f>R16</f>
-        <v>16.412233336283968</v>
+        <v>13.508010976365405</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" ref="T16:X16" si="0">S16</f>
-        <v>16.412233336283968</v>
+        <v>13.508010976365405</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="0"/>
-        <v>16.412233336283968</v>
+        <v>13.508010976365405</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="0"/>
-        <v>16.412233336283968</v>
+        <v>13.508010976365405</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="0"/>
-        <v>16.412233336283968</v>
+        <v>13.508010976365405</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" si="0"/>
-        <v>16.412233336283968</v>
+        <v>13.508010976365405</v>
       </c>
       <c r="Y16" t="s">
         <v>12</v>
       </c>
-      <c r="AA16" s="4" t="s">
-        <v>53</v>
+      <c r="AA16" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="7:25" x14ac:dyDescent="0.45">
@@ -1162,31 +912,31 @@
       </c>
       <c r="R17" s="1">
         <f>$Q$10*G17/SUM($G$16:$G$18)</f>
-        <v>210.28738603168981</v>
+        <v>173.07603788616444</v>
       </c>
       <c r="S17" s="1">
         <f t="shared" ref="S17:X18" si="1">R17*H17/G17</f>
-        <v>244.67779056386647</v>
+        <v>201.38089758342917</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" si="1"/>
-        <v>265.36623882446662</v>
+        <v>218.4084270160219</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="1"/>
-        <v>275.27380720545273</v>
+        <v>226.56280428432322</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="1"/>
-        <v>290.48147295742228</v>
+        <v>239.07940161104713</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="1"/>
-        <v>307.46587589625557</v>
+        <v>253.0583340709922</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" si="1"/>
-        <v>330.89471541117103</v>
+        <v>272.34132955651938</v>
       </c>
       <c r="Y17" t="s">
         <v>12</v>
@@ -1226,31 +976,31 @@
       </c>
       <c r="R18" s="1">
         <f>$Q$10*G18/SUM($G$16:$G$18)</f>
-        <v>113.50038063202619</v>
+        <v>93.415951137470117</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" si="1"/>
-        <v>97.208604054173648</v>
+        <v>80.007081526068859</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" si="1"/>
-        <v>88.595945826325561</v>
+        <v>72.918473931132169</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="1"/>
-        <v>84.048703195538621</v>
+        <v>69.175887403735516</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" si="1"/>
-        <v>82.302080198282709</v>
+        <v>67.738337611755341</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="1"/>
-        <v>82.964592369655648</v>
+        <v>68.283615119058169</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" si="1"/>
-        <v>90.974966805346526</v>
+        <v>74.876515889174129</v>
       </c>
       <c r="Y18" t="s">
         <v>12</v>
@@ -1258,7 +1008,7 @@
     </row>
     <row r="19" spans="7:25" x14ac:dyDescent="0.45">
       <c r="Q19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R19" s="1">
         <f>$Q$10*G16/SUM($G$16:$G$18)-R16</f>
@@ -1266,27 +1016,27 @@
       </c>
       <c r="S19" s="1">
         <f t="shared" ref="S19:X19" si="2">$Q$10*H16/SUM($G$16:$G$18)-S16</f>
-        <v>-3.914844649021866</v>
+        <v>-3.2220943613348663</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="2"/>
-        <v>-1.0539966362751212</v>
+        <v>-0.86748694343631172</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="2"/>
-        <v>6.4444365760821434</v>
+        <v>5.3040630255820105</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="2"/>
-        <v>21.802673276090999</v>
+        <v>17.944587058511111</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="2"/>
-        <v>53.151544657873764</v>
+        <v>43.74612729043109</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" si="2"/>
-        <v>86.277153226520312</v>
+        <v>71.010002655572265</v>
       </c>
       <c r="Y19" t="s">
         <v>12</v>
@@ -1297,11 +1047,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -1360,13 +1110,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
       </c>
       <c r="F2">
         <v>0.37469999999999998</v>
@@ -1390,10 +1140,10 @@
         <v>0.32619999999999999</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
         <v>14</v>
@@ -1407,13 +1157,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
       </c>
       <c r="F3">
         <v>0.37209999999999999</v>
@@ -1437,10 +1187,10 @@
         <v>0.40739999999999998</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s">
         <v>14</v>
@@ -1454,13 +1204,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>5.45E-2</v>
@@ -1484,10 +1234,10 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O4" t="s">
         <v>11</v>
@@ -1501,13 +1251,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>0.69830000000000003</v>
@@ -1531,10 +1281,10 @@
         <v>1.0988</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s">
         <v>13</v>
@@ -1548,13 +1298,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
       </c>
       <c r="F6">
         <v>0.37690000000000001</v>
@@ -1578,10 +1328,10 @@
         <v>0.30209999999999998</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s">
         <v>14</v>
@@ -1595,13 +1345,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
       </c>
       <c r="F7">
         <v>0.37359999999999999</v>
@@ -1625,10 +1375,10 @@
         <v>0.32779999999999998</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7" t="s">
         <v>14</v>
@@ -1642,13 +1392,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>0.69940000000000002</v>
@@ -1672,10 +1422,10 @@
         <v>1.2003999999999999</v>
       </c>
       <c r="M8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O8" t="s">
         <v>13</v>
@@ -1689,13 +1439,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <v>5.1999999999999998E-2</v>
@@ -1719,10 +1469,10 @@
         <v>0.36030000000000001</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O9" t="s">
         <v>11</v>
@@ -1736,13 +1486,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>6.3399999999999998E-2</v>
@@ -1766,10 +1516,10 @@
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="M10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" t="s">
         <v>11</v>
@@ -1783,13 +1533,13 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11">
         <v>0.69110000000000005</v>
@@ -1813,10 +1563,10 @@
         <v>1.4702999999999999</v>
       </c>
       <c r="M11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O11" t="s">
         <v>13</v>
@@ -1830,13 +1580,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
         <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
       </c>
       <c r="F12">
         <v>0.37469999999999998</v>
@@ -1860,10 +1610,10 @@
         <v>0.25719999999999998</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O12" t="s">
         <v>14</v>
@@ -1877,13 +1627,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13">
         <v>0.68179999999999996</v>
@@ -1907,10 +1657,10 @@
         <v>1.1176999999999999</v>
       </c>
       <c r="M13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O13" t="s">
         <v>13</v>
@@ -1924,13 +1674,13 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14">
         <v>5.2699999999999997E-2</v>
@@ -1954,10 +1704,10 @@
         <v>0.2424</v>
       </c>
       <c r="M14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O14" t="s">
         <v>11</v>
@@ -1971,13 +1721,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15">
         <v>0.67979999999999996</v>
@@ -2001,10 +1751,10 @@
         <v>1.3542000000000001</v>
       </c>
       <c r="M15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O15" t="s">
         <v>13</v>
@@ -2018,13 +1768,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
         <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
       </c>
       <c r="F16">
         <v>0.38769999999999999</v>
@@ -2048,10 +1798,10 @@
         <v>0.25390000000000001</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O16" t="s">
         <v>14</v>
@@ -2065,13 +1815,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17">
         <v>5.5100000000000003E-2</v>
@@ -2095,10 +1845,10 @@
         <v>0.36180000000000001</v>
       </c>
       <c r="M17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O17" t="s">
         <v>11</v>
@@ -2112,13 +1862,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18">
         <v>0.69269999999999998</v>
@@ -2142,10 +1892,10 @@
         <v>1.1363000000000001</v>
       </c>
       <c r="M18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O18" t="s">
         <v>13</v>
@@ -2159,13 +1909,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
         <v>24</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
       </c>
       <c r="F19">
         <v>0.37440000000000001</v>
@@ -2189,10 +1939,10 @@
         <v>0.3271</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O19" t="s">
         <v>14</v>
@@ -2206,13 +1956,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20">
         <v>0.69920000000000004</v>
@@ -2236,10 +1986,10 @@
         <v>0.78369999999999995</v>
       </c>
       <c r="M20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O20" t="s">
         <v>13</v>
@@ -2253,13 +2003,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21">
         <v>5.8999999999999997E-2</v>
@@ -2283,10 +2033,10 @@
         <v>0.44130000000000003</v>
       </c>
       <c r="M21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O21" t="s">
         <v>11</v>
@@ -2300,13 +2050,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22">
         <v>6.4100000000000004E-2</v>
@@ -2330,10 +2080,10 @@
         <v>0.35870000000000002</v>
       </c>
       <c r="M22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O22" t="s">
         <v>11</v>
@@ -2347,13 +2097,13 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
         <v>29</v>
-      </c>
-      <c r="E23" t="s">
-        <v>30</v>
       </c>
       <c r="F23">
         <v>0.79330000000000001</v>
@@ -2377,13 +2127,13 @@
         <v>41.091099999999997</v>
       </c>
       <c r="M23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" t="s">
         <v>31</v>
-      </c>
-      <c r="O23" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
@@ -2394,13 +2144,13 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24">
         <v>1.8210999999999999</v>
@@ -2424,13 +2174,13 @@
         <v>10.4336</v>
       </c>
       <c r="M24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" t="s">
         <v>33</v>
-      </c>
-      <c r="N24" t="s">
-        <v>31</v>
-      </c>
-      <c r="O24" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
@@ -2441,13 +2191,13 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25">
         <v>2.4039000000000001</v>
@@ -2471,13 +2221,13 @@
         <v>7.3807999999999998</v>
       </c>
       <c r="M25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" t="s">
         <v>35</v>
-      </c>
-      <c r="N25" t="s">
-        <v>31</v>
-      </c>
-      <c r="O25" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
@@ -2488,13 +2238,13 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26">
         <v>2.4039000000000001</v>
@@ -2518,13 +2268,13 @@
         <v>4.7949000000000002</v>
       </c>
       <c r="M26" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" t="s">
         <v>35</v>
-      </c>
-      <c r="N26" t="s">
-        <v>31</v>
-      </c>
-      <c r="O26" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
@@ -2535,13 +2285,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27">
         <v>1.8210999999999999</v>
@@ -2565,13 +2315,13 @@
         <v>6.3018999999999998</v>
       </c>
       <c r="M27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" t="s">
         <v>33</v>
-      </c>
-      <c r="N27" t="s">
-        <v>31</v>
-      </c>
-      <c r="O27" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
@@ -2582,13 +2332,13 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28">
         <v>3.1242999999999999</v>
@@ -2612,13 +2362,13 @@
         <v>5.2706</v>
       </c>
       <c r="M28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" t="s">
         <v>37</v>
-      </c>
-      <c r="N28" t="s">
-        <v>31</v>
-      </c>
-      <c r="O28" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
@@ -2629,13 +2379,13 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
         <v>29</v>
-      </c>
-      <c r="E29" t="s">
-        <v>30</v>
       </c>
       <c r="F29">
         <v>0.79330000000000001</v>
@@ -2659,13 +2409,13 @@
         <v>9.2622999999999998</v>
       </c>
       <c r="M29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" t="s">
         <v>31</v>
-      </c>
-      <c r="O29" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
@@ -2676,13 +2426,13 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30">
         <v>1.8210999999999999</v>
@@ -2706,13 +2456,13 @@
         <v>2.6432000000000002</v>
       </c>
       <c r="M30" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" t="s">
         <v>33</v>
-      </c>
-      <c r="N30" t="s">
-        <v>31</v>
-      </c>
-      <c r="O30" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.45">
@@ -2723,13 +2473,13 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31">
         <v>3.1242999999999999</v>
@@ -2753,13 +2503,13 @@
         <v>4.6989999999999998</v>
       </c>
       <c r="M31" t="s">
+        <v>36</v>
+      </c>
+      <c r="N31" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" t="s">
         <v>37</v>
-      </c>
-      <c r="N31" t="s">
-        <v>31</v>
-      </c>
-      <c r="O31" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.45">
@@ -2770,13 +2520,13 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
         <v>29</v>
-      </c>
-      <c r="E32" t="s">
-        <v>30</v>
       </c>
       <c r="F32">
         <v>0.79330000000000001</v>
@@ -2800,13 +2550,13 @@
         <v>18.1554</v>
       </c>
       <c r="M32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N32" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" t="s">
         <v>31</v>
-      </c>
-      <c r="O32" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.45">
@@ -2817,13 +2567,13 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
         <v>29</v>
-      </c>
-      <c r="E33" t="s">
-        <v>30</v>
       </c>
       <c r="F33">
         <v>0.79330000000000001</v>
@@ -2847,13 +2597,13 @@
         <v>6.9612999999999996</v>
       </c>
       <c r="M33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N33" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" t="s">
         <v>31</v>
-      </c>
-      <c r="O33" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.45">
@@ -2864,13 +2614,13 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F34">
         <v>2.4039000000000001</v>
@@ -2894,13 +2644,13 @@
         <v>4.7228000000000003</v>
       </c>
       <c r="M34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O34" t="s">
         <v>35</v>
-      </c>
-      <c r="N34" t="s">
-        <v>31</v>
-      </c>
-      <c r="O34" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.45">
@@ -2911,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
         <v>29</v>
-      </c>
-      <c r="E35" t="s">
-        <v>30</v>
       </c>
       <c r="F35">
         <v>0.79330000000000001</v>
@@ -2941,13 +2691,13 @@
         <v>11.804</v>
       </c>
       <c r="M35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N35" t="s">
+        <v>30</v>
+      </c>
+      <c r="O35" t="s">
         <v>31</v>
-      </c>
-      <c r="O35" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.45">
@@ -2958,13 +2708,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F36">
         <v>1.8210999999999999</v>
@@ -2988,13 +2738,13 @@
         <v>3.4154</v>
       </c>
       <c r="M36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" t="s">
+        <v>30</v>
+      </c>
+      <c r="O36" t="s">
         <v>33</v>
-      </c>
-      <c r="N36" t="s">
-        <v>31</v>
-      </c>
-      <c r="O36" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.45">
@@ -3005,13 +2755,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37">
         <v>2.4039000000000001</v>
@@ -3035,13 +2785,13 @@
         <v>4.9874000000000001</v>
       </c>
       <c r="M37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" t="s">
         <v>35</v>
-      </c>
-      <c r="N37" t="s">
-        <v>31</v>
-      </c>
-      <c r="O37" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.45">
@@ -3052,13 +2802,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F38">
         <v>3.1242999999999999</v>
@@ -3082,13 +2832,13 @@
         <v>4.5690999999999997</v>
       </c>
       <c r="M38" t="s">
+        <v>36</v>
+      </c>
+      <c r="N38" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38" t="s">
         <v>37</v>
-      </c>
-      <c r="N38" t="s">
-        <v>31</v>
-      </c>
-      <c r="O38" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
@@ -3099,13 +2849,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
         <v>29</v>
-      </c>
-      <c r="E39" t="s">
-        <v>30</v>
       </c>
       <c r="F39">
         <v>0.79330000000000001</v>
@@ -3129,13 +2879,13 @@
         <v>12.6198</v>
       </c>
       <c r="M39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N39" t="s">
+        <v>30</v>
+      </c>
+      <c r="O39" t="s">
         <v>31</v>
-      </c>
-      <c r="O39" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.45">
@@ -3146,13 +2896,13 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F40">
         <v>1.8210999999999999</v>
@@ -3176,13 +2926,13 @@
         <v>2.7033</v>
       </c>
       <c r="M40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" t="s">
+        <v>30</v>
+      </c>
+      <c r="O40" t="s">
         <v>33</v>
-      </c>
-      <c r="N40" t="s">
-        <v>31</v>
-      </c>
-      <c r="O40" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.45">
@@ -3193,13 +2943,13 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F41">
         <v>3.1242999999999999</v>
@@ -3223,13 +2973,13 @@
         <v>5.7683</v>
       </c>
       <c r="M41" t="s">
+        <v>36</v>
+      </c>
+      <c r="N41" t="s">
+        <v>30</v>
+      </c>
+      <c r="O41" t="s">
         <v>37</v>
-      </c>
-      <c r="N41" t="s">
-        <v>31</v>
-      </c>
-      <c r="O41" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.45">
@@ -3240,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F42">
         <v>2.4039000000000001</v>
@@ -3270,13 +3020,13 @@
         <v>4.8583999999999996</v>
       </c>
       <c r="M42" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O42" t="s">
         <v>35</v>
-      </c>
-      <c r="N42" t="s">
-        <v>31</v>
-      </c>
-      <c r="O42" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.45">
@@ -3287,13 +3037,13 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" t="s">
         <v>29</v>
-      </c>
-      <c r="E43" t="s">
-        <v>30</v>
       </c>
       <c r="F43">
         <v>0.79330000000000001</v>
@@ -3317,13 +3067,13 @@
         <v>3.1745000000000001</v>
       </c>
       <c r="M43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O43" t="s">
         <v>31</v>
-      </c>
-      <c r="O43" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.45">
@@ -3334,13 +3084,13 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F44">
         <v>1.8210999999999999</v>
@@ -3364,13 +3114,13 @@
         <v>2.6608999999999998</v>
       </c>
       <c r="M44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N44" t="s">
+        <v>30</v>
+      </c>
+      <c r="O44" t="s">
         <v>33</v>
-      </c>
-      <c r="N44" t="s">
-        <v>31</v>
-      </c>
-      <c r="O44" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.45">
@@ -3381,13 +3131,13 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F45">
         <v>2.4039000000000001</v>
@@ -3411,13 +3161,13 @@
         <v>4.7777000000000003</v>
       </c>
       <c r="M45" t="s">
+        <v>34</v>
+      </c>
+      <c r="N45" t="s">
+        <v>30</v>
+      </c>
+      <c r="O45" t="s">
         <v>35</v>
-      </c>
-      <c r="N45" t="s">
-        <v>31</v>
-      </c>
-      <c r="O45" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.45">
@@ -3428,13 +3178,13 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F46">
         <v>3.1242999999999999</v>
@@ -3458,13 +3208,13 @@
         <v>6.5091999999999999</v>
       </c>
       <c r="M46" t="s">
+        <v>36</v>
+      </c>
+      <c r="N46" t="s">
+        <v>30</v>
+      </c>
+      <c r="O46" t="s">
         <v>37</v>
-      </c>
-      <c r="N46" t="s">
-        <v>31</v>
-      </c>
-      <c r="O46" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.45">
@@ -3475,13 +3225,13 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F47">
         <v>2.4039000000000001</v>
@@ -3505,13 +3255,13 @@
         <v>5.2603999999999997</v>
       </c>
       <c r="M47" t="s">
+        <v>34</v>
+      </c>
+      <c r="N47" t="s">
+        <v>30</v>
+      </c>
+      <c r="O47" t="s">
         <v>35</v>
-      </c>
-      <c r="N47" t="s">
-        <v>31</v>
-      </c>
-      <c r="O47" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.45">
@@ -3522,13 +3272,13 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F48">
         <v>1.8210999999999999</v>
@@ -3552,13 +3302,13 @@
         <v>2.1049000000000002</v>
       </c>
       <c r="M48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N48" t="s">
+        <v>30</v>
+      </c>
+      <c r="O48" t="s">
         <v>33</v>
-      </c>
-      <c r="N48" t="s">
-        <v>31</v>
-      </c>
-      <c r="O48" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
@@ -3569,13 +3319,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F49">
         <v>3.1242999999999999</v>
@@ -3599,13 +3349,13 @@
         <v>5.8238000000000003</v>
       </c>
       <c r="M49" t="s">
+        <v>36</v>
+      </c>
+      <c r="N49" t="s">
+        <v>30</v>
+      </c>
+      <c r="O49" t="s">
         <v>37</v>
-      </c>
-      <c r="N49" t="s">
-        <v>31</v>
-      </c>
-      <c r="O49" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.45">
@@ -3616,13 +3366,13 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F50">
         <v>3.1242999999999999</v>
@@ -3646,13 +3396,13 @@
         <v>3.1471</v>
       </c>
       <c r="M50" t="s">
+        <v>36</v>
+      </c>
+      <c r="N50" t="s">
+        <v>30</v>
+      </c>
+      <c r="O50" t="s">
         <v>37</v>
-      </c>
-      <c r="N50" t="s">
-        <v>31</v>
-      </c>
-      <c r="O50" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3660,9 +3410,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -3680,254 +3430,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" t="s">
         <v>45</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="D2">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F2">
-        <v>6.7</v>
+        <v>23.5</v>
       </c>
       <c r="G2">
-        <v>0.26</v>
+        <v>0.59</v>
       </c>
       <c r="H2">
-        <v>0.88</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>21.5</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>21.4</v>
-      </c>
-      <c r="E3">
-        <v>24</v>
+        <v>17.2</v>
       </c>
       <c r="F3">
-        <v>21.4</v>
-      </c>
-      <c r="G3">
-        <v>0.46</v>
+        <v>22.6</v>
       </c>
       <c r="H3">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4">
-        <v>257.3</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>192.6</v>
-      </c>
-      <c r="E4">
-        <v>217.5</v>
+        <v>111.9</v>
       </c>
       <c r="F4">
-        <v>192.1</v>
-      </c>
-      <c r="G4">
-        <v>0.67</v>
+        <v>141.5</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5">
-        <v>4.3</v>
+        <v>6.3</v>
       </c>
       <c r="E5">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="G5">
-        <v>0.52</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>20.7</v>
       </c>
       <c r="D6">
-        <v>31.6</v>
+        <v>23.4</v>
       </c>
       <c r="E6">
-        <v>35.9</v>
+        <v>30.3</v>
       </c>
       <c r="F6">
-        <v>35.6</v>
+        <v>28.4</v>
       </c>
       <c r="G6">
-        <v>0.32</v>
+        <v>0.15</v>
       </c>
       <c r="H6">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C7">
-        <v>10.8</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
-        <v>10.8</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>10.9</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>10.9</v>
+        <v>15.6</v>
       </c>
       <c r="G7">
-        <v>0.77</v>
+        <v>0.03</v>
       </c>
       <c r="H7">
-        <v>0.77</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C8">
-        <v>6.7</v>
+        <v>5.4</v>
       </c>
       <c r="D8">
-        <v>8.4</v>
+        <v>5.4</v>
       </c>
       <c r="E8">
-        <v>39.799999999999997</v>
+        <v>28.1</v>
       </c>
       <c r="F8">
-        <v>32.700000000000003</v>
+        <v>28.1</v>
       </c>
       <c r="G8">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="H8">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9">
-        <v>28.2</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>27.9</v>
+        <v>16.8</v>
       </c>
       <c r="E9">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="F9">
         <v>20.3</v>
       </c>
       <c r="G9">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="H9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10">
-        <v>22.3</v>
-      </c>
-      <c r="D10">
-        <v>23.1</v>
-      </c>
-      <c r="E10">
-        <v>20.6</v>
-      </c>
-      <c r="F10">
-        <v>20.5</v>
-      </c>
-      <c r="G10">
-        <v>0.31</v>
-      </c>
-      <c r="H10">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910B6B18-7997-4B40-826B-F8F4C70DAEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58E8278-49B6-44D8-B61E-B5CA6486BB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="76">
   <si>
     <t>~Inputcell: 3</t>
   </si>
@@ -197,6 +197,72 @@
   </si>
   <si>
     <t>ITA</t>
+  </si>
+  <si>
+    <t>Unnamed: 8</t>
+  </si>
+  <si>
+    <t>Unnamed: 9</t>
+  </si>
+  <si>
+    <t>Unnamed: 10</t>
+  </si>
+  <si>
+    <t>Unnamed: 11</t>
+  </si>
+  <si>
+    <t>Unnamed: 12</t>
+  </si>
+  <si>
+    <t>Unnamed: 13</t>
+  </si>
+  <si>
+    <t>Unnamed: 14</t>
+  </si>
+  <si>
+    <t>Unnamed: 15</t>
+  </si>
+  <si>
+    <t>Unnamed: 16</t>
+  </si>
+  <si>
+    <t>Unnamed: 17</t>
+  </si>
+  <si>
+    <t>Unnamed: 18</t>
+  </si>
+  <si>
+    <t>Unnamed: 19</t>
+  </si>
+  <si>
+    <t>Unnamed: 20</t>
+  </si>
+  <si>
+    <t>Unnamed: 21</t>
+  </si>
+  <si>
+    <t>Unnamed: 22</t>
+  </si>
+  <si>
+    <t>Unnamed: 23</t>
+  </si>
+  <si>
+    <t>Unnamed: 24</t>
+  </si>
+  <si>
+    <t>Unnamed: 25</t>
+  </si>
+  <si>
+    <t>Electricity Trade Data (TWh)</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Import</t>
   </si>
 </sst>
 </file>
@@ -719,7 +785,7 @@
       </c>
       <c r="Q10" s="4">
         <f>SUM(historical_data!F2:F16)</f>
-        <v>280</v>
+        <v>2283</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>52</v>
@@ -845,31 +911,31 @@
       </c>
       <c r="R16" s="1">
         <f>$Q$10*G16/SUM($G$16:$G$18)</f>
-        <v>13.508010976365405</v>
+        <v>110.13853235372221</v>
       </c>
       <c r="S16" s="1">
         <f>R16</f>
-        <v>13.508010976365405</v>
+        <v>110.13853235372221</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" ref="T16:X16" si="0">S16</f>
-        <v>13.508010976365405</v>
+        <v>110.13853235372221</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="0"/>
-        <v>13.508010976365405</v>
+        <v>110.13853235372221</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="0"/>
-        <v>13.508010976365405</v>
+        <v>110.13853235372221</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="0"/>
-        <v>13.508010976365405</v>
+        <v>110.13853235372221</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" si="0"/>
-        <v>13.508010976365405</v>
+        <v>110.13853235372221</v>
       </c>
       <c r="Y16" t="s">
         <v>12</v>
@@ -912,31 +978,31 @@
       </c>
       <c r="R17" s="1">
         <f>$Q$10*G17/SUM($G$16:$G$18)</f>
-        <v>173.07603788616444</v>
+        <v>1411.1878374789767</v>
       </c>
       <c r="S17" s="1">
         <f t="shared" ref="S17:X18" si="1">R17*H17/G17</f>
-        <v>201.38089758342917</v>
+        <v>1641.9735327963176</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" si="1"/>
-        <v>218.4084270160219</v>
+        <v>1780.8087102770646</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="1"/>
-        <v>226.56280428432322</v>
+        <v>1847.2960077896785</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="1"/>
-        <v>239.07940161104713</v>
+        <v>1949.3509781357882</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="1"/>
-        <v>253.0583340709922</v>
+        <v>2063.3292024431262</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" si="1"/>
-        <v>272.34132955651938</v>
+        <v>2220.5544834911921</v>
       </c>
       <c r="Y17" t="s">
         <v>12</v>
@@ -976,31 +1042,31 @@
       </c>
       <c r="R18" s="1">
         <f>$Q$10*G18/SUM($G$16:$G$18)</f>
-        <v>93.415951137470117</v>
+        <v>761.67363016730098</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" si="1"/>
-        <v>80.007081526068859</v>
+        <v>652.34345401433995</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" si="1"/>
-        <v>72.918473931132169</v>
+        <v>594.54598565990966</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="1"/>
-        <v>69.175887403735516</v>
+        <v>564.03053908117192</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" si="1"/>
-        <v>67.738337611755341</v>
+        <v>552.30937417013354</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="1"/>
-        <v>68.283615119058169</v>
+        <v>556.75533327432049</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" si="1"/>
-        <v>74.876515889174129</v>
+        <v>610.51102062494442</v>
       </c>
       <c r="Y18" t="s">
         <v>12</v>
@@ -1016,27 +1082,27 @@
       </c>
       <c r="S19" s="1">
         <f t="shared" ref="S19:X19" si="2">$Q$10*H16/SUM($G$16:$G$18)-S16</f>
-        <v>-3.2220943613348663</v>
+        <v>-26.271576524741079</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="2"/>
-        <v>-0.86748694343631172</v>
+        <v>-7.0731167566610651</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="2"/>
-        <v>5.3040630255820105</v>
+        <v>43.247056740727601</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="2"/>
-        <v>17.944587058511111</v>
+        <v>146.31247233778879</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="2"/>
-        <v>43.74612729043109</v>
+        <v>356.68717358590777</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" si="2"/>
-        <v>71.010002655572265</v>
+        <v>578.98512879525538</v>
       </c>
       <c r="Y19" t="s">
         <v>12</v>
@@ -3412,7 +3478,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -3429,7 +3495,7 @@
     <col min="8" max="8" width="20.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3454,8 +3520,62 @@
       <c r="H1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -3481,7 +3601,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -3498,7 +3618,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -3515,7 +3635,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -3532,7 +3652,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -3558,7 +3678,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -3584,7 +3704,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -3610,7 +3730,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -3634,6 +3754,113 @@
       </c>
       <c r="H9">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>2000</v>
+      </c>
+      <c r="D13">
+        <v>2001</v>
+      </c>
+      <c r="E13">
+        <v>2002</v>
+      </c>
+      <c r="F13">
+        <v>2003</v>
+      </c>
+      <c r="G13">
+        <v>2004</v>
+      </c>
+      <c r="H13">
+        <v>2005</v>
+      </c>
+      <c r="I13">
+        <v>2006</v>
+      </c>
+      <c r="J13">
+        <v>2007</v>
+      </c>
+      <c r="K13">
+        <v>2008</v>
+      </c>
+      <c r="L13">
+        <v>2009</v>
+      </c>
+      <c r="M13">
+        <v>2010</v>
+      </c>
+      <c r="N13">
+        <v>2011</v>
+      </c>
+      <c r="O13">
+        <v>2012</v>
+      </c>
+      <c r="P13">
+        <v>2013</v>
+      </c>
+      <c r="Q13">
+        <v>2014</v>
+      </c>
+      <c r="R13">
+        <v>2015</v>
+      </c>
+      <c r="S13">
+        <v>2016</v>
+      </c>
+      <c r="T13">
+        <v>2017</v>
+      </c>
+      <c r="U13">
+        <v>2018</v>
+      </c>
+      <c r="V13">
+        <v>2019</v>
+      </c>
+      <c r="W13">
+        <v>2020</v>
+      </c>
+      <c r="X13">
+        <v>2021</v>
+      </c>
+      <c r="Y13">
+        <v>2022</v>
+      </c>
+      <c r="Z13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>44.35</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58E8278-49B6-44D8-B61E-B5CA6486BB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C0019F-8C27-41A2-94AC-40C8C9B34F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,10 +259,10 @@
     <t>ISO</t>
   </si>
   <si>
+    <t>Import</t>
+  </si>
+  <si>
     <t>Export</t>
-  </si>
-  <si>
-    <t>Import</t>
   </si>
 </sst>
 </file>
@@ -785,7 +785,7 @@
       </c>
       <c r="Q10" s="4">
         <f>SUM(historical_data!F2:F16)</f>
-        <v>2283</v>
+        <v>2333.9699999999998</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>52</v>
@@ -911,31 +911,31 @@
       </c>
       <c r="R16" s="1">
         <f>$Q$10*G16/SUM($G$16:$G$18)</f>
-        <v>110.13853235372221</v>
+        <v>112.59747278038415</v>
       </c>
       <c r="S16" s="1">
         <f>R16</f>
-        <v>110.13853235372221</v>
+        <v>112.59747278038415</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" ref="T16:X16" si="0">S16</f>
-        <v>110.13853235372221</v>
+        <v>112.59747278038415</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="0"/>
-        <v>110.13853235372221</v>
+        <v>112.59747278038415</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="0"/>
-        <v>110.13853235372221</v>
+        <v>112.59747278038415</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="0"/>
-        <v>110.13853235372221</v>
+        <v>112.59747278038415</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" si="0"/>
-        <v>110.13853235372221</v>
+        <v>112.59747278038415</v>
       </c>
       <c r="Y16" t="s">
         <v>12</v>
@@ -978,31 +978,31 @@
       </c>
       <c r="R17" s="1">
         <f>$Q$10*G17/SUM($G$16:$G$18)</f>
-        <v>1411.1878374789767</v>
+        <v>1442.6938576613256</v>
       </c>
       <c r="S17" s="1">
         <f t="shared" ref="S17:X18" si="1">R17*H17/G17</f>
-        <v>1641.9735327963176</v>
+        <v>1678.6320483314148</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" si="1"/>
-        <v>1780.8087102770646</v>
+        <v>1820.566844294945</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="1"/>
-        <v>1847.2960077896785</v>
+        <v>1888.5385296981494</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="1"/>
-        <v>1949.3509781357882</v>
+        <v>1992.8719677790557</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="1"/>
-        <v>2063.3292024431262</v>
+        <v>2109.3948570416915</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" si="1"/>
-        <v>2220.5544834911921</v>
+        <v>2270.1303319465337</v>
       </c>
       <c r="Y17" t="s">
         <v>12</v>
@@ -1042,31 +1042,31 @@
       </c>
       <c r="R18" s="1">
         <f>$Q$10*G18/SUM($G$16:$G$18)</f>
-        <v>761.67363016730098</v>
+        <v>778.6786695582897</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" si="1"/>
-        <v>652.34345401433995</v>
+        <v>666.90760024785322</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" si="1"/>
-        <v>594.54598565990966</v>
+        <v>607.81975214658746</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="1"/>
-        <v>564.03053908117192</v>
+        <v>576.62302115605894</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" si="1"/>
-        <v>552.30937417013354</v>
+        <v>564.64017084181614</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="1"/>
-        <v>556.75533327432049</v>
+        <v>569.18538992652896</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" si="1"/>
-        <v>610.51102062494442</v>
+        <v>624.14122067805579</v>
       </c>
       <c r="Y18" t="s">
         <v>12</v>
@@ -1082,27 +1082,27 @@
       </c>
       <c r="S19" s="1">
         <f t="shared" ref="S19:X19" si="2">$Q$10*H16/SUM($G$16:$G$18)-S16</f>
-        <v>-26.271576524741079</v>
+        <v>-26.858112773302636</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="2"/>
-        <v>-7.0731167566610651</v>
+        <v>-7.231030362043029</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="2"/>
-        <v>43.247056740727601</v>
+        <v>44.21258564220588</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="2"/>
-        <v>146.31247233778879</v>
+        <v>149.57902806054702</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="2"/>
-        <v>356.68717358590777</v>
+        <v>364.65053111445513</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" si="2"/>
-        <v>578.98512879525538</v>
+        <v>591.9114853500929</v>
       </c>
       <c r="Y19" t="s">
         <v>12</v>
@@ -3849,7 +3849,76 @@
         <v>74</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>44.35</v>
+      </c>
+      <c r="D14">
+        <v>48.38</v>
+      </c>
+      <c r="E14">
+        <v>50.6</v>
+      </c>
+      <c r="F14">
+        <v>50.97</v>
+      </c>
+      <c r="G14">
+        <v>45.63</v>
+      </c>
+      <c r="H14">
+        <v>49.15</v>
+      </c>
+      <c r="I14">
+        <v>44.99</v>
+      </c>
+      <c r="J14">
+        <v>46.28</v>
+      </c>
+      <c r="K14">
+        <v>40.03</v>
+      </c>
+      <c r="L14">
+        <v>44.96</v>
+      </c>
+      <c r="M14">
+        <v>44.16</v>
+      </c>
+      <c r="N14">
+        <v>45.73</v>
+      </c>
+      <c r="O14">
+        <v>43.1</v>
+      </c>
+      <c r="P14">
+        <v>42.14</v>
+      </c>
+      <c r="Q14">
+        <v>43.72</v>
+      </c>
+      <c r="R14">
+        <v>46.38</v>
+      </c>
+      <c r="S14">
+        <v>37.03</v>
+      </c>
+      <c r="T14">
+        <v>37.76</v>
+      </c>
+      <c r="U14">
+        <v>43.9</v>
+      </c>
+      <c r="V14">
+        <v>38.14</v>
+      </c>
+      <c r="W14">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="X14">
+        <v>42.79</v>
+      </c>
+      <c r="Y14">
+        <v>42.99</v>
+      </c>
+      <c r="Z14">
+        <v>51.25</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
@@ -3860,7 +3929,76 @@
         <v>75</v>
       </c>
       <c r="C15">
-        <v>44.35</v>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C0019F-8C27-41A2-94AC-40C8C9B34F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663BBD25-A312-47A5-BD95-8AD9A99A37FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,7 +253,7 @@
     <t>Unnamed: 25</t>
   </si>
   <si>
-    <t>Electricity Trade Data (TWh)</t>
+    <t>Electricity Trade Data (TWh) - Source: EMBER (estimated)</t>
   </si>
   <si>
     <t>ISO</t>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663BBD25-A312-47A5-BD95-8AD9A99A37FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344CA9DF-F40A-4316-8CAB-12F658DB372D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="65">
   <si>
     <t>~Inputcell: 3</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>elc_industry</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>non-road transport demand assumed to be constant</t>
+  </si>
+  <si>
+    <t>base-year demand (TWh)</t>
   </si>
   <si>
     <t>Model</t>
@@ -151,31 +160,31 @@
     <t>oil</t>
   </si>
   <si>
-    <t>iso_code</t>
+    <t>Trd_electricity import</t>
+  </si>
+  <si>
+    <t>Trd_electricity export</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>limtype</t>
+  </si>
+  <si>
+    <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>EMBER Utilization Factors</t>
   </si>
   <si>
     <t>model_fuel</t>
-  </si>
-  <si>
-    <t>generation_twh_gem_irena</t>
-  </si>
-  <si>
-    <t>generation_twh_gem_ember</t>
-  </si>
-  <si>
-    <t>generation_twh_irena</t>
-  </si>
-  <si>
-    <t>generation_twh_ember</t>
-  </si>
-  <si>
-    <t>utilization_factor_irena</t>
-  </si>
-  <si>
-    <t>utilization_factor_ember</t>
-  </si>
-  <si>
-    <t>geothermal</t>
   </si>
   <si>
     <t>hydro</t>
@@ -187,70 +196,28 @@
     <t>wind</t>
   </si>
   <si>
-    <t>elc_roadtransport</t>
+    <t>IRENA Utilization Factors</t>
   </si>
   <si>
-    <t>non-road transport demand assumed to be constant</t>
+    <t>geothermal</t>
   </si>
   <si>
-    <t>base-year demand (TWh)</t>
+    <t>EMBER Generation (TWh)</t>
   </si>
   <si>
-    <t>ITA</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>Unnamed: 8</t>
+    <t>nuclear</t>
   </si>
   <si>
-    <t>Unnamed: 9</t>
+    <t>IRENA Generation (TWh)</t>
   </si>
   <si>
-    <t>Unnamed: 10</t>
+    <t>EMBER Capacity (GW)</t>
   </si>
   <si>
-    <t>Unnamed: 11</t>
-  </si>
-  <si>
-    <t>Unnamed: 12</t>
-  </si>
-  <si>
-    <t>Unnamed: 13</t>
-  </si>
-  <si>
-    <t>Unnamed: 14</t>
-  </si>
-  <si>
-    <t>Unnamed: 15</t>
-  </si>
-  <si>
-    <t>Unnamed: 16</t>
-  </si>
-  <si>
-    <t>Unnamed: 17</t>
-  </si>
-  <si>
-    <t>Unnamed: 18</t>
-  </si>
-  <si>
-    <t>Unnamed: 19</t>
-  </si>
-  <si>
-    <t>Unnamed: 20</t>
-  </si>
-  <si>
-    <t>Unnamed: 21</t>
-  </si>
-  <si>
-    <t>Unnamed: 22</t>
-  </si>
-  <si>
-    <t>Unnamed: 23</t>
-  </si>
-  <si>
-    <t>Unnamed: 24</t>
-  </si>
-  <si>
-    <t>Unnamed: 25</t>
+    <t>IRENA Capacity (GW)</t>
   </si>
   <si>
     <t>Electricity Trade Data (TWh) - Source: EMBER (estimated)</t>
@@ -269,7 +236,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,8 +287,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +314,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFC8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -373,7 +372,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -381,6 +380,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -719,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AA19"/>
+  <dimension ref="B2:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -784,11 +788,11 @@
         <v>4</v>
       </c>
       <c r="Q10" s="4">
-        <f>SUM(historical_data!F2:F16)</f>
-        <v>2333.9699999999998</v>
+        <f>historical_data!X32</f>
+        <v>279.96000000000004</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
@@ -911,40 +915,40 @@
       </c>
       <c r="R16" s="1">
         <f>$Q$10*G16/SUM($G$16:$G$18)</f>
-        <v>112.59747278038415</v>
+        <v>13.506081260511641</v>
       </c>
       <c r="S16" s="1">
         <f>R16</f>
-        <v>112.59747278038415</v>
+        <v>13.506081260511641</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" ref="T16:X16" si="0">S16</f>
-        <v>112.59747278038415</v>
+        <v>13.506081260511641</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="0"/>
-        <v>112.59747278038415</v>
+        <v>13.506081260511641</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="0"/>
-        <v>112.59747278038415</v>
+        <v>13.506081260511641</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="0"/>
-        <v>112.59747278038415</v>
+        <v>13.506081260511641</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" si="0"/>
-        <v>112.59747278038415</v>
+        <v>13.506081260511641</v>
       </c>
       <c r="Y16" t="s">
         <v>12</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="7:25" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G17">
         <f>SUMIFS(iamc_data!F$2:F$50,iamc_data!$O$2:$O$50,Veda!$Q17,iamc_data!$B$2:$B$50,Veda!$C$5)</f>
         <v>0.69830000000000003</v>
@@ -978,37 +982,37 @@
       </c>
       <c r="R17" s="1">
         <f>$Q$10*G17/SUM($G$16:$G$18)</f>
-        <v>1442.6938576613256</v>
+        <v>173.05131273789502</v>
       </c>
       <c r="S17" s="1">
         <f t="shared" ref="S17:X18" si="1">R17*H17/G17</f>
-        <v>1678.6320483314148</v>
+        <v>201.35212888377444</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" si="1"/>
-        <v>1820.566844294945</v>
+        <v>218.37722581216252</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="1"/>
-        <v>1888.5385296981494</v>
+        <v>226.53043816942551</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="1"/>
-        <v>1992.8719677790557</v>
+        <v>239.04524741081704</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="1"/>
-        <v>2109.3948570416915</v>
+        <v>253.0221828804107</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" si="1"/>
-        <v>2270.1303319465337</v>
+        <v>272.30242365229708</v>
       </c>
       <c r="Y17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="7:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G18">
         <f>SUMIFS(iamc_data!F$2:F$50,iamc_data!$O$2:$O$50,Veda!$Q18,iamc_data!$B$2:$B$50,Veda!$C$5)</f>
         <v>0.37690000000000001</v>
@@ -1042,39 +1046,39 @@
       </c>
       <c r="R18" s="1">
         <f>$Q$10*G18/SUM($G$16:$G$18)</f>
-        <v>778.6786695582897</v>
+        <v>93.402606001593341</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" si="1"/>
-        <v>666.90760024785322</v>
+        <v>79.995651942993703</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" si="1"/>
-        <v>607.81975214658746</v>
+        <v>72.908057006284849</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="1"/>
-        <v>576.62302115605894</v>
+        <v>69.166005134106399</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" si="1"/>
-        <v>564.64017084181614</v>
+        <v>67.728660706382229</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="1"/>
-        <v>569.18538992652896</v>
+        <v>68.273860316898293</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" si="1"/>
-        <v>624.14122067805579</v>
+        <v>74.865819244047088</v>
       </c>
       <c r="Y18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="7:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="7:26" x14ac:dyDescent="0.45">
       <c r="Q19" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="R19" s="1">
         <f>$Q$10*G16/SUM($G$16:$G$18)-R16</f>
@@ -1082,30 +1086,112 @@
       </c>
       <c r="S19" s="1">
         <f t="shared" ref="S19:X19" si="2">$Q$10*H16/SUM($G$16:$G$18)-S16</f>
-        <v>-26.858112773302636</v>
+        <v>-3.2216340621403923</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="2"/>
-        <v>-7.231030362043029</v>
+        <v>-0.86736301673010807</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="2"/>
-        <v>44.21258564220588</v>
+        <v>5.3033053022926406</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="2"/>
-        <v>149.57902806054702</v>
+        <v>17.942023546074182</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="2"/>
-        <v>364.65053111445513</v>
+        <v>43.739877843675316</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" si="2"/>
-        <v>591.9114853500929</v>
+        <v>70.99985836947863</v>
       </c>
       <c r="Y19" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="7:26" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q22" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="7:26" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" s="5">
+        <f>R15</f>
+        <v>2022</v>
+      </c>
+      <c r="S23" s="5">
+        <f t="shared" ref="S23:X23" si="3">S15</f>
+        <v>2025</v>
+      </c>
+      <c r="T23" s="5">
+        <f t="shared" si="3"/>
+        <v>2030</v>
+      </c>
+      <c r="U23" s="5">
+        <f t="shared" si="3"/>
+        <v>2035</v>
+      </c>
+      <c r="V23" s="5">
+        <f t="shared" si="3"/>
+        <v>2040</v>
+      </c>
+      <c r="W23" s="5">
+        <f t="shared" si="3"/>
+        <v>2045</v>
+      </c>
+      <c r="X23" s="5">
+        <f t="shared" si="3"/>
+        <v>2050</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="Q24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24" s="1">
+        <f>historical_data!Y87</f>
+        <v>42.99</v>
+      </c>
+      <c r="S24" s="1">
+        <f>AVERAGE(historical_data!U87:Z87)</f>
+        <v>41.878333333333337</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="Q25" t="s">
+        <v>42</v>
+      </c>
+      <c r="R25" s="1">
+        <f>historical_data!Y88</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <f>AVERAGE(historical_data!U88:Z88)</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1117,25 +1203,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1">
         <v>2020</v>
@@ -1159,10 +1247,10 @@
         <v>2050</v>
       </c>
       <c r="M1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
@@ -1170,19 +1258,19 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>0.37469999999999998</v>
@@ -1206,10 +1294,10 @@
         <v>0.32619999999999999</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
         <v>14</v>
@@ -1217,19 +1305,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>0.37209999999999999</v>
@@ -1253,10 +1341,10 @@
         <v>0.40739999999999998</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
         <v>14</v>
@@ -1264,19 +1352,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>5.45E-2</v>
@@ -1300,10 +1388,10 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
         <v>11</v>
@@ -1311,19 +1399,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
       </c>
       <c r="F5">
         <v>0.69830000000000003</v>
@@ -1347,10 +1435,10 @@
         <v>1.0988</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O5" t="s">
         <v>13</v>
@@ -1358,19 +1446,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>0.37690000000000001</v>
@@ -1394,10 +1482,10 @@
         <v>0.30209999999999998</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O6" t="s">
         <v>14</v>
@@ -1405,19 +1493,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>0.37359999999999999</v>
@@ -1441,10 +1529,10 @@
         <v>0.32779999999999998</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O7" t="s">
         <v>14</v>
@@ -1452,19 +1540,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
       </c>
       <c r="F8">
         <v>0.69940000000000002</v>
@@ -1488,10 +1576,10 @@
         <v>1.2003999999999999</v>
       </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O8" t="s">
         <v>13</v>
@@ -1499,19 +1587,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>5.1999999999999998E-2</v>
@@ -1535,10 +1623,10 @@
         <v>0.36030000000000001</v>
       </c>
       <c r="M9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O9" t="s">
         <v>11</v>
@@ -1546,19 +1634,19 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F10">
         <v>6.3399999999999998E-2</v>
@@ -1582,10 +1670,10 @@
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="M10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O10" t="s">
         <v>11</v>
@@ -1593,19 +1681,19 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
         <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
       </c>
       <c r="F11">
         <v>0.69110000000000005</v>
@@ -1629,10 +1717,10 @@
         <v>1.4702999999999999</v>
       </c>
       <c r="M11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O11" t="s">
         <v>13</v>
@@ -1640,19 +1728,19 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F12">
         <v>0.37469999999999998</v>
@@ -1676,10 +1764,10 @@
         <v>0.25719999999999998</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O12" t="s">
         <v>14</v>
@@ -1687,19 +1775,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
       </c>
       <c r="F13">
         <v>0.68179999999999996</v>
@@ -1723,10 +1811,10 @@
         <v>1.1176999999999999</v>
       </c>
       <c r="M13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O13" t="s">
         <v>13</v>
@@ -1734,19 +1822,19 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F14">
         <v>5.2699999999999997E-2</v>
@@ -1770,10 +1858,10 @@
         <v>0.2424</v>
       </c>
       <c r="M14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O14" t="s">
         <v>11</v>
@@ -1781,19 +1869,19 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
         <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
       </c>
       <c r="F15">
         <v>0.67979999999999996</v>
@@ -1817,10 +1905,10 @@
         <v>1.3542000000000001</v>
       </c>
       <c r="M15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O15" t="s">
         <v>13</v>
@@ -1828,19 +1916,19 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F16">
         <v>0.38769999999999999</v>
@@ -1864,10 +1952,10 @@
         <v>0.25390000000000001</v>
       </c>
       <c r="M16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O16" t="s">
         <v>14</v>
@@ -1875,19 +1963,19 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F17">
         <v>5.5100000000000003E-2</v>
@@ -1911,10 +1999,10 @@
         <v>0.36180000000000001</v>
       </c>
       <c r="M17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O17" t="s">
         <v>11</v>
@@ -1922,19 +2010,19 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
         <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
       </c>
       <c r="F18">
         <v>0.69269999999999998</v>
@@ -1958,10 +2046,10 @@
         <v>1.1363000000000001</v>
       </c>
       <c r="M18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O18" t="s">
         <v>13</v>
@@ -1969,19 +2057,19 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F19">
         <v>0.37440000000000001</v>
@@ -2005,10 +2093,10 @@
         <v>0.3271</v>
       </c>
       <c r="M19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O19" t="s">
         <v>14</v>
@@ -2016,19 +2104,19 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
         <v>27</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
       </c>
       <c r="F20">
         <v>0.69920000000000004</v>
@@ -2052,10 +2140,10 @@
         <v>0.78369999999999995</v>
       </c>
       <c r="M20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O20" t="s">
         <v>13</v>
@@ -2063,19 +2151,19 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F21">
         <v>5.8999999999999997E-2</v>
@@ -2099,10 +2187,10 @@
         <v>0.44130000000000003</v>
       </c>
       <c r="M21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O21" t="s">
         <v>11</v>
@@ -2110,19 +2198,19 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F22">
         <v>6.4100000000000004E-2</v>
@@ -2146,10 +2234,10 @@
         <v>0.35870000000000002</v>
       </c>
       <c r="M22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O22" t="s">
         <v>11</v>
@@ -2157,19 +2245,19 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F23">
         <v>0.79330000000000001</v>
@@ -2193,30 +2281,30 @@
         <v>41.091099999999997</v>
       </c>
       <c r="M23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
         <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
       </c>
       <c r="F24">
         <v>1.8210999999999999</v>
@@ -2240,30 +2328,30 @@
         <v>10.4336</v>
       </c>
       <c r="M24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F25">
         <v>2.4039000000000001</v>
@@ -2287,30 +2375,30 @@
         <v>7.3807999999999998</v>
       </c>
       <c r="M25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F26">
         <v>2.4039000000000001</v>
@@ -2334,30 +2422,30 @@
         <v>4.7949000000000002</v>
       </c>
       <c r="M26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
         <v>32</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
       </c>
       <c r="F27">
         <v>1.8210999999999999</v>
@@ -2381,30 +2469,30 @@
         <v>6.3018999999999998</v>
       </c>
       <c r="M27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F28">
         <v>3.1242999999999999</v>
@@ -2428,30 +2516,30 @@
         <v>5.2706</v>
       </c>
       <c r="M28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F29">
         <v>0.79330000000000001</v>
@@ -2475,30 +2563,30 @@
         <v>9.2622999999999998</v>
       </c>
       <c r="M29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
         <v>32</v>
-      </c>
-      <c r="E30" t="s">
-        <v>29</v>
       </c>
       <c r="F30">
         <v>1.8210999999999999</v>
@@ -2522,30 +2610,30 @@
         <v>2.6432000000000002</v>
       </c>
       <c r="M30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F31">
         <v>3.1242999999999999</v>
@@ -2569,30 +2657,30 @@
         <v>4.6989999999999998</v>
       </c>
       <c r="M31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F32">
         <v>0.79330000000000001</v>
@@ -2616,30 +2704,30 @@
         <v>18.1554</v>
       </c>
       <c r="M32" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F33">
         <v>0.79330000000000001</v>
@@ -2663,30 +2751,30 @@
         <v>6.9612999999999996</v>
       </c>
       <c r="M33" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F34">
         <v>2.4039000000000001</v>
@@ -2710,30 +2798,30 @@
         <v>4.7228000000000003</v>
       </c>
       <c r="M34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N34" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F35">
         <v>0.79330000000000001</v>
@@ -2757,30 +2845,30 @@
         <v>11.804</v>
       </c>
       <c r="M35" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N35" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
         <v>32</v>
-      </c>
-      <c r="E36" t="s">
-        <v>29</v>
       </c>
       <c r="F36">
         <v>1.8210999999999999</v>
@@ -2804,30 +2892,30 @@
         <v>3.4154</v>
       </c>
       <c r="M36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F37">
         <v>2.4039000000000001</v>
@@ -2851,30 +2939,30 @@
         <v>4.9874000000000001</v>
       </c>
       <c r="M37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N37" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F38">
         <v>3.1242999999999999</v>
@@ -2898,30 +2986,30 @@
         <v>4.5690999999999997</v>
       </c>
       <c r="M38" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N38" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F39">
         <v>0.79330000000000001</v>
@@ -2945,30 +3033,30 @@
         <v>12.6198</v>
       </c>
       <c r="M39" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N39" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O39" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
         <v>32</v>
-      </c>
-      <c r="E40" t="s">
-        <v>29</v>
       </c>
       <c r="F40">
         <v>1.8210999999999999</v>
@@ -2992,30 +3080,30 @@
         <v>2.7033</v>
       </c>
       <c r="M40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N40" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F41">
         <v>3.1242999999999999</v>
@@ -3039,30 +3127,30 @@
         <v>5.7683</v>
       </c>
       <c r="M41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N41" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F42">
         <v>2.4039000000000001</v>
@@ -3086,30 +3174,30 @@
         <v>4.8583999999999996</v>
       </c>
       <c r="M42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O42" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F43">
         <v>0.79330000000000001</v>
@@ -3133,30 +3221,30 @@
         <v>3.1745000000000001</v>
       </c>
       <c r="M43" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N43" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O43" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" t="s">
         <v>32</v>
-      </c>
-      <c r="E44" t="s">
-        <v>29</v>
       </c>
       <c r="F44">
         <v>1.8210999999999999</v>
@@ -3180,30 +3268,30 @@
         <v>2.6608999999999998</v>
       </c>
       <c r="M44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N44" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F45">
         <v>2.4039000000000001</v>
@@ -3227,30 +3315,30 @@
         <v>4.7777000000000003</v>
       </c>
       <c r="M45" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N45" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F46">
         <v>3.1242999999999999</v>
@@ -3274,30 +3362,30 @@
         <v>6.5091999999999999</v>
       </c>
       <c r="M46" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N46" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O46" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F47">
         <v>2.4039000000000001</v>
@@ -3321,30 +3409,30 @@
         <v>5.2603999999999997</v>
       </c>
       <c r="M47" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N47" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" t="s">
         <v>32</v>
-      </c>
-      <c r="E48" t="s">
-        <v>29</v>
       </c>
       <c r="F48">
         <v>1.8210999999999999</v>
@@ -3368,30 +3456,30 @@
         <v>2.1049000000000002</v>
       </c>
       <c r="M48" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N48" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F49">
         <v>3.1242999999999999</v>
@@ -3415,30 +3503,30 @@
         <v>5.8238000000000003</v>
       </c>
       <c r="M49" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N49" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O49" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F50">
         <v>3.1242999999999999</v>
@@ -3462,13 +3550,13 @@
         <v>3.1471</v>
       </c>
       <c r="M50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N50" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O50" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3478,526 +3566,4196 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Z88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2002</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2003</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2005</v>
+      </c>
+      <c r="H2" s="8">
+        <v>2006</v>
+      </c>
+      <c r="I2" s="8">
+        <v>2007</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2008</v>
+      </c>
+      <c r="K2" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L2" s="8">
+        <v>2010</v>
+      </c>
+      <c r="M2" s="8">
+        <v>2011</v>
+      </c>
+      <c r="N2" s="8">
+        <v>2012</v>
+      </c>
+      <c r="O2" s="8">
+        <v>2013</v>
+      </c>
+      <c r="P2" s="8">
+        <v>2014</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>2015</v>
+      </c>
+      <c r="R2" s="8">
+        <v>2016</v>
+      </c>
+      <c r="S2" s="8">
+        <v>2017</v>
+      </c>
+      <c r="T2" s="8">
+        <v>2018</v>
+      </c>
+      <c r="U2" s="8">
+        <v>2019</v>
+      </c>
+      <c r="V2" s="8">
+        <v>2020</v>
+      </c>
+      <c r="W2" s="8">
+        <v>2021</v>
+      </c>
+      <c r="X2" s="8">
+        <v>2022</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.61522608801066792</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.62934286281516771</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.61410525614105249</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.63330715760695699</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.72548666186012989</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.74052659669098031</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.77363813512491642</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.75846709807546864</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.71674526536417393</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0.66333456744415642</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0.66085188356164382</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0.62919014676012885</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.52921203606135103</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0.63624764974482939</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0.68106183731909309</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0.70676749919842574</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0.69930259547283602</v>
+      </c>
+      <c r="S3" s="9">
+        <v>0.69169425869419376</v>
+      </c>
+      <c r="T3" s="9">
+        <v>0.67662443458314581</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0.69304680906316962</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0.69550645885530227</v>
+      </c>
+      <c r="W3" s="9">
+        <v>0.68029990954762931</v>
+      </c>
+      <c r="X3" s="9">
+        <v>0.64195219167132056</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>0.60575494311218137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.34602076124567482</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.42117978124668154</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.47055856429860893</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.51515875544228529</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.62231700981598448</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.57221959796357535</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.58009237390437207</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.57878024458090593</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.61000827129859381</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.52024422939968995</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0.45490352335545442</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.51215289704730615</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.56264684464351955</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0.51638935070050329</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0.50458246816891728</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0.50892743542983165</v>
+      </c>
+      <c r="R4" s="9">
+        <v>0.46671280059135295</v>
+      </c>
+      <c r="S4" s="9">
+        <v>0.43565916312852143</v>
+      </c>
+      <c r="T4" s="9">
+        <v>0.38011695906432741</v>
+      </c>
+      <c r="U4" s="9">
+        <v>0.25154209725226306</v>
+      </c>
+      <c r="V4" s="9">
+        <v>0.19733814732221869</v>
+      </c>
+      <c r="W4" s="9">
+        <v>0.23501565653517861</v>
+      </c>
+      <c r="X4" s="9">
+        <v>0.37900884409845853</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>0.25717309414385414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B5" s="9">
+        <v>0.21688427845750258</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.22202418548512892</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.21195692035826924</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.2444397765407833</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.25723564401629956</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.28042118198664318</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.28071079794005777</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.2922584260992816</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.2779788969658355</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.23646215642703375</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.24074060070301742</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.22510363173419468</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.20133855684813015</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.17523112617091591</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0.15844369919854487</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.20478133387114289</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0.24738866431689593</v>
+      </c>
+      <c r="S5" s="9">
+        <v>0.2791433980876013</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0.25589885068453339</v>
+      </c>
+      <c r="U5" s="9">
+        <v>0.28175925948019492</v>
+      </c>
+      <c r="V5" s="9">
+        <v>0.27138259384113744</v>
+      </c>
+      <c r="W5" s="9">
+        <v>0.2955149688458561</v>
+      </c>
+      <c r="X5" s="9">
+        <v>0.2867461537463678</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>0.23584379225019769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.30785003663554733</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.3246419991455694</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.27242847373877754</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.25066305744675033</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.2878697637482629</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.24164201341994127</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.24679151021192447</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.21833189641408821</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.27431533213114406</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.32220499948856351</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.33232439853964491</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.29418411739628436</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.26672323467058051</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.33373809433461088</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.36886258026147345</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.28501261715933668</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.26438904508384675</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0.22349486702672805</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0.3000880766808377</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0.28428339961702753</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0.28949771689497716</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0.27546554222833963</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0.1712630286539932</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0.22976393784140595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="B7" s="9">
+        <v>8.2835036602159899</v>
+      </c>
+      <c r="C7" s="9">
+        <v>6.8518331990330372</v>
+      </c>
+      <c r="D7" s="9">
+        <v>7.9203599247918337</v>
+      </c>
+      <c r="E7" s="9">
+        <v>6.9920091324200904</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5.4123019070641956</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4.2221588026382548</v>
+      </c>
+      <c r="H7" s="9">
+        <v>4.1714231354642308</v>
+      </c>
+      <c r="I7" s="9">
+        <v>3.3001966007102994</v>
+      </c>
+      <c r="J7" s="9">
+        <v>2.9783422120750886</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2.378234398782344</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2.1499238964992391</v>
+      </c>
+      <c r="M7" s="9">
+        <v>2.0682711821410451</v>
+      </c>
+      <c r="N7" s="9">
+        <v>1.9620433789954339</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1.5862823439878235</v>
+      </c>
+      <c r="P7" s="9">
+        <v>1.4856037544393708</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1.3262620497209539</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1.2810755961440894</v>
+      </c>
+      <c r="S7" s="9">
+        <v>1.2057648401826484</v>
+      </c>
+      <c r="T7" s="9">
+        <v>1.1589928970065957</v>
+      </c>
+      <c r="U7" s="9">
+        <v>1.0797184170471841</v>
+      </c>
+      <c r="V7" s="9">
+        <v>1.0170915778792491</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0.88232496194824972</v>
+      </c>
+      <c r="X7" s="9">
+        <v>1.2390601217656012</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>1.2319254185692541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="E8" s="9">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="H8" s="9">
+        <v>9.1324200913242004E-2</v>
+      </c>
+      <c r="I8" s="9">
+        <v>4.1511000415110001E-2</v>
+      </c>
+      <c r="J8" s="9">
+        <v>4.5186453576864537E-2</v>
+      </c>
+      <c r="K8" s="9">
+        <v>6.1607595854171207E-2</v>
+      </c>
+      <c r="L8" s="9">
+        <v>6.0565702688990357E-2</v>
+      </c>
+      <c r="M8" s="9">
+        <v>9.3826233814974666E-2</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.12822918621379872</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0.13549268126146885</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.13692492757892669</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.13848341941762107</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0.13078439866398708</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0.14134611593860083</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0.12857366675067947</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0.12958015809982651</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0.1314419189044469</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0.12647997737099445</v>
+      </c>
+      <c r="X8" s="9">
+        <v>0.1307021849389437</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>0.11879041402347462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.1775748351090817</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.20409575204095751</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.20489404051047885</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.19157088122605365</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.18588111690305897</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.16387931758971341</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.17844268204758473</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.17038728225942837</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.15716558655749158</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.15298675050527735</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0.17980930749757493</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0.16248977221738325</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.18899036022323698</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0.19917016885352842</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0.19964017423142477</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.18534616268497148</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0.21528852800576376</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0.20791726439950117</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0.19773519552573904</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0.21591161732765551</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0.19701495045221024</v>
+      </c>
+      <c r="W9" s="9">
+        <v>0.21237950279046169</v>
+      </c>
+      <c r="X9" s="9">
+        <v>0.19586027860834898</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>0.21801705559203086</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A15" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2002</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2003</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2005</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2006</v>
+      </c>
+      <c r="I16" s="8">
+        <v>2007</v>
+      </c>
+      <c r="J16" s="8">
+        <v>2008</v>
+      </c>
+      <c r="K16" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L16" s="8">
+        <v>2010</v>
+      </c>
+      <c r="M16" s="8">
+        <v>2011</v>
+      </c>
+      <c r="N16" s="8">
+        <v>2012</v>
+      </c>
+      <c r="O16" s="8">
+        <v>2013</v>
+      </c>
+      <c r="P16" s="8">
+        <v>2014</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>2015</v>
+      </c>
+      <c r="R16" s="8">
+        <v>2016</v>
+      </c>
+      <c r="S16" s="8">
+        <v>2017</v>
+      </c>
+      <c r="T16" s="8">
+        <v>2018</v>
+      </c>
+      <c r="U16" s="8">
+        <v>2019</v>
+      </c>
+      <c r="V16" s="8">
+        <v>2020</v>
+      </c>
+      <c r="W16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="X16" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.29387335196920444</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.36119588962232163</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.44005793825548695</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.44668870313278031</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.54898593711379096</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.61000284572266994</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.64753472829655767</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.62752567747232946</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.58888908630393622</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.5673952378959225</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0.59031104308580318</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0.54674259382098878</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0.44853889899451427</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0.58350948198641062</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0.63667296066860524</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0.65763867133730136</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0.64758790186698112</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0.64110341340216126</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0.62627406907580729</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0.64651878707642696</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0.65169312541193969</v>
+      </c>
+      <c r="W17" s="9">
+        <v>0.63648704525812538</v>
+      </c>
+      <c r="X17" s="9">
+        <v>0.59277106311612904</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>54</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B18" s="9">
+        <v>0.91033975698475367</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.89790177468582399</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.79908675799086759</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.86238075862380759</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.96681069431997602</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.90583467733703538</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.94035447672321693</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.94745932262213428</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.93915491088745062</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.87740580138628832</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.84297945205479452</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.88662611646344525</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0.87681346906518143</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0.88618737120343749</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0.87940166595319624</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0.91933192422945187</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0.93594997410298097</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0.922711274930198</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0.90846117489425482</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0.90391841519020266</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0.89132060374858879</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0.87470664323539882</v>
+      </c>
+      <c r="X18" s="9">
+        <v>0.86333726595725613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.28558245436146446</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.30125755131902554</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.26300120576970937</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.24464788133158288</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.27464620897146697</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.23342690659878584</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.23524997898052519</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.20802424867929775</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0.25339148834066899</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0.2854692026001181</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0.28860623970905264</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0.25080291521537151</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0.22880093682435534</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0.28356807022282915</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0.31127604163438005</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0.24130564426305645</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0.22657477726978403</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0.19355715910404311</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0.25624516880745851</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0.24386476819833647</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0.24895999115400089</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0.23824110380502575</v>
+      </c>
+      <c r="X19" s="9">
+        <v>0.15125668935897063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.18549363909037686</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.16242780220674277</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.18947752518915301</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.16134275900234468</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.12074365174832007</v>
+      </c>
+      <c r="G20" s="9">
+        <v>9.2604874927729272E-2</v>
+      </c>
+      <c r="H20" s="9">
+        <v>8.5383142670290207E-2</v>
+      </c>
+      <c r="I20" s="9">
+        <v>6.3942571567428885E-2</v>
+      </c>
+      <c r="J20" s="9">
+        <v>5.4351971653901113E-2</v>
+      </c>
+      <c r="K20" s="9">
+        <v>4.5120373132528896E-2</v>
+      </c>
+      <c r="L20" s="9">
+        <v>3.8445903076430775E-2</v>
+      </c>
+      <c r="M20" s="9">
+        <v>3.5465642257402952E-2</v>
+      </c>
+      <c r="N20" s="9">
+        <v>3.3828410664150516E-2</v>
+      </c>
+      <c r="O20" s="9">
+        <v>2.9497986896519491E-2</v>
+      </c>
+      <c r="P20" s="9">
+        <v>2.8898030899281432E-2</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>2.9934943675673939E-2</v>
+      </c>
+      <c r="R20" s="9">
+        <v>2.9741012269575366E-2</v>
+      </c>
+      <c r="S20" s="9">
+        <v>2.8767224001894291E-2</v>
+      </c>
+      <c r="T20" s="9">
+        <v>2.7660265219492469E-2</v>
+      </c>
+      <c r="U20" s="9">
+        <v>2.5984909288337733E-2</v>
+      </c>
+      <c r="V20" s="9">
+        <v>2.5949170525979785E-2</v>
+      </c>
+      <c r="W20" s="9">
+        <v>2.1681649145671975E-2</v>
+      </c>
+      <c r="X20" s="9">
+        <v>3.1944135901513453E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.10814708002883922</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.10844748858447488</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.10896637608966378</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.10537407797681771</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.1067903962291943</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.10408272898200376</v>
+      </c>
+      <c r="H21" s="9">
+        <v>8.8787417554540851E-2</v>
+      </c>
+      <c r="I21" s="9">
+        <v>4.0424449979244499E-2</v>
+      </c>
+      <c r="J21" s="9">
+        <v>4.5606559081841996E-2</v>
+      </c>
+      <c r="K21" s="9">
+        <v>6.1094824721114389E-2</v>
+      </c>
+      <c r="L21" s="9">
+        <v>6.0783945108384398E-2</v>
+      </c>
+      <c r="M21" s="9">
+        <v>9.457878955568752E-2</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0.12931650057322672</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0.13673327820166969</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0.13816232692585365</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0.13981618422725917</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0.132076705674749</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0.14275360852558924</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0.12991755316197512</v>
+      </c>
+      <c r="U21" s="9">
+        <v>0.13118242254470275</v>
+      </c>
+      <c r="V21" s="9">
+        <v>0.13337047062172605</v>
+      </c>
+      <c r="W21" s="9">
+        <v>0.12832090743979691</v>
+      </c>
+      <c r="X21" s="9">
+        <v>0.13076711146608011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.17705070631596159</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.20269433899983494</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.20547945205479451</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.19043290178991254</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.1867689303237674</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.1634194908745619</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.1781260653289736</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.17044532377504912</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0.15732740697561451</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.15299618343829349</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0.17972438028317755</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0.16251183135517033</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0.18890322756994438</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0.19908293588810169</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0.19954897961008153</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0.18545551905719279</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0.21518058037191448</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0.20801272044711919</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0.19769064914008325</v>
+      </c>
+      <c r="U22" s="9">
+        <v>0.21594436217582091</v>
+      </c>
+      <c r="V22" s="9">
+        <v>0.19702002802981769</v>
+      </c>
+      <c r="W22" s="9">
+        <v>0.21228169618742199</v>
+      </c>
+      <c r="X22" s="9">
+        <v>0.19792026167823587</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A30" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C31" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D31" s="8">
+        <v>2002</v>
+      </c>
+      <c r="E31" s="8">
+        <v>2003</v>
+      </c>
+      <c r="F31" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G31" s="8">
+        <v>2005</v>
+      </c>
+      <c r="H31" s="8">
+        <v>2006</v>
+      </c>
+      <c r="I31" s="8">
+        <v>2007</v>
+      </c>
+      <c r="J31" s="8">
+        <v>2008</v>
+      </c>
+      <c r="K31" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L31" s="8">
+        <v>2010</v>
+      </c>
+      <c r="M31" s="8">
+        <v>2011</v>
+      </c>
+      <c r="N31" s="8">
+        <v>2012</v>
+      </c>
+      <c r="O31" s="8">
+        <v>2013</v>
+      </c>
+      <c r="P31" s="8">
+        <v>2014</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>2015</v>
+      </c>
+      <c r="R31" s="8">
+        <v>2016</v>
+      </c>
+      <c r="S31" s="8">
+        <v>2017</v>
+      </c>
+      <c r="T31" s="8">
+        <v>2018</v>
+      </c>
+      <c r="U31" s="8">
+        <v>2019</v>
+      </c>
+      <c r="V31" s="8">
+        <v>2020</v>
+      </c>
+      <c r="W31" s="8">
+        <v>2021</v>
+      </c>
+      <c r="X31" s="8">
+        <v>2022</v>
+      </c>
+      <c r="Y31" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A32" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B32" s="10">
+        <v>269.94</v>
+      </c>
+      <c r="C32" s="10">
+        <v>271.89999999999998</v>
+      </c>
+      <c r="D32" s="10">
+        <v>277.52999999999997</v>
+      </c>
+      <c r="E32" s="10">
+        <v>286.27</v>
+      </c>
+      <c r="F32" s="10">
+        <v>293.71000000000004</v>
+      </c>
+      <c r="G32" s="10">
+        <v>294.63</v>
+      </c>
+      <c r="H32" s="10">
+        <v>305.61</v>
+      </c>
+      <c r="I32" s="10">
+        <v>306.17</v>
+      </c>
+      <c r="J32" s="10">
+        <v>311.57000000000005</v>
+      </c>
+      <c r="K32" s="10">
+        <v>286.36</v>
+      </c>
+      <c r="L32" s="10">
+        <v>296.63</v>
+      </c>
+      <c r="M32" s="10">
+        <v>298.37</v>
+      </c>
+      <c r="N32" s="10">
+        <v>295.25</v>
+      </c>
+      <c r="O32" s="10">
+        <v>286.02</v>
+      </c>
+      <c r="P32" s="10">
+        <v>276.52999999999997</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>279.7</v>
+      </c>
+      <c r="R32" s="10">
+        <v>285.95</v>
+      </c>
+      <c r="S32" s="10">
+        <v>292.08999999999997</v>
+      </c>
+      <c r="T32" s="10">
+        <v>286.06</v>
+      </c>
+      <c r="U32" s="10">
+        <v>289.99</v>
+      </c>
+      <c r="V32" s="10">
+        <v>276.81</v>
+      </c>
+      <c r="W32" s="10">
+        <v>285.49</v>
+      </c>
+      <c r="X32" s="10">
+        <v>279.96000000000004</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>262.58000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="11">
+        <v>6.09</v>
+      </c>
+      <c r="C33" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="D33" s="11">
+        <v>7.37</v>
+      </c>
+      <c r="E33" s="11">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F33" s="11">
+        <v>9.66</v>
+      </c>
+      <c r="G33" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="H33" s="11">
+        <v>10.64</v>
+      </c>
+      <c r="I33" s="11">
+        <v>10.83</v>
+      </c>
+      <c r="J33" s="11">
+        <v>11.489999999999998</v>
+      </c>
+      <c r="K33" s="11">
+        <v>12.899999999999999</v>
+      </c>
+      <c r="L33" s="11">
+        <v>14.82</v>
+      </c>
+      <c r="M33" s="11">
+        <v>16.48</v>
+      </c>
+      <c r="N33" s="11">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="O33" s="11">
+        <v>22.74</v>
+      </c>
+      <c r="P33" s="11">
+        <v>24.64</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>25.57</v>
+      </c>
+      <c r="R33" s="11">
+        <v>25.79</v>
+      </c>
+      <c r="S33" s="11">
+        <v>25.57</v>
+      </c>
+      <c r="T33" s="11">
+        <v>25.25</v>
+      </c>
+      <c r="U33" s="11">
+        <v>25.62</v>
+      </c>
+      <c r="V33" s="11">
+        <v>25.650000000000002</v>
+      </c>
+      <c r="W33" s="11">
+        <v>24.97</v>
+      </c>
+      <c r="X33" s="11">
+        <v>23.45</v>
+      </c>
+      <c r="Y33" s="11">
+        <v>22.34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="11">
+        <v>26.28</v>
+      </c>
+      <c r="C34" s="11">
+        <v>31.73</v>
+      </c>
+      <c r="D34" s="11">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="E34" s="11">
+        <v>38.81</v>
+      </c>
+      <c r="F34" s="11">
+        <v>45.52</v>
+      </c>
+      <c r="G34" s="11">
+        <v>43.61</v>
+      </c>
+      <c r="H34" s="11">
+        <v>44.21</v>
+      </c>
+      <c r="I34" s="11">
+        <v>44.11</v>
+      </c>
+      <c r="J34" s="11">
+        <v>43.07</v>
+      </c>
+      <c r="K34" s="11">
+        <v>39.74</v>
+      </c>
+      <c r="L34" s="11">
+        <v>39.729999999999997</v>
+      </c>
+      <c r="M34" s="11">
+        <v>44.73</v>
+      </c>
+      <c r="N34" s="11">
+        <v>49.14</v>
+      </c>
+      <c r="O34" s="11">
+        <v>45.1</v>
+      </c>
+      <c r="P34" s="11">
+        <v>43.45</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>43.2</v>
+      </c>
+      <c r="R34" s="11">
+        <v>35.61</v>
+      </c>
+      <c r="S34" s="11">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="T34" s="11">
+        <v>28.47</v>
+      </c>
+      <c r="U34" s="11">
+        <v>18.84</v>
+      </c>
+      <c r="V34" s="11">
+        <v>13.38</v>
+      </c>
+      <c r="W34" s="11">
+        <v>14.02</v>
+      </c>
+      <c r="X34" s="11">
+        <v>22.61</v>
+      </c>
+      <c r="Y34" s="11">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="11">
+        <v>101.36</v>
+      </c>
+      <c r="C35" s="11">
+        <v>104.19</v>
+      </c>
+      <c r="D35" s="11">
+        <v>99.41</v>
+      </c>
+      <c r="E35" s="11">
+        <v>117.3</v>
+      </c>
+      <c r="F35" s="11">
+        <v>129.84</v>
+      </c>
+      <c r="G35" s="11">
+        <v>149.33000000000001</v>
+      </c>
+      <c r="H35" s="11">
+        <v>158.13999999999999</v>
+      </c>
+      <c r="I35" s="11">
+        <v>172.71</v>
+      </c>
+      <c r="J35" s="11">
+        <v>172.77</v>
+      </c>
+      <c r="K35" s="11">
+        <v>147.36000000000001</v>
+      </c>
+      <c r="L35" s="11">
+        <v>152.81</v>
+      </c>
+      <c r="M35" s="11">
+        <v>144.6</v>
+      </c>
+      <c r="N35" s="11">
+        <v>129.13999999999999</v>
+      </c>
+      <c r="O35" s="11">
+        <v>108.91</v>
+      </c>
+      <c r="P35" s="11">
+        <v>93.66</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>110.88</v>
+      </c>
+      <c r="R35" s="11">
+        <v>126.17</v>
+      </c>
+      <c r="S35" s="11">
+        <v>140.36000000000001</v>
+      </c>
+      <c r="T35" s="11">
+        <v>128.56</v>
+      </c>
+      <c r="U35" s="11">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="V35" s="11">
+        <v>133.69999999999999</v>
+      </c>
+      <c r="W35" s="11">
+        <v>144.01</v>
+      </c>
+      <c r="X35" s="11">
+        <v>141.47</v>
+      </c>
+      <c r="Y35" s="11">
+        <v>118.34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="11">
+        <v>44.2</v>
+      </c>
+      <c r="C36" s="11">
+        <v>46.81</v>
+      </c>
+      <c r="D36" s="11">
+        <v>39.520000000000003</v>
+      </c>
+      <c r="E36" s="11">
+        <v>36.67</v>
+      </c>
+      <c r="F36" s="11">
+        <v>42.34</v>
+      </c>
+      <c r="G36" s="11">
+        <v>36.07</v>
+      </c>
+      <c r="H36" s="11">
+        <v>36.99</v>
+      </c>
+      <c r="I36" s="11">
+        <v>32.82</v>
+      </c>
+      <c r="J36" s="11">
+        <v>41.62</v>
+      </c>
+      <c r="K36" s="11">
+        <v>49.14</v>
+      </c>
+      <c r="L36" s="11">
+        <v>51.12</v>
+      </c>
+      <c r="M36" s="11">
+        <v>45.82</v>
+      </c>
+      <c r="N36" s="11">
+        <v>41.87</v>
+      </c>
+      <c r="O36" s="11">
+        <v>52.77</v>
+      </c>
+      <c r="P36" s="11">
+        <v>58.55</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>45.54</v>
+      </c>
+      <c r="R36" s="11">
+        <v>42.43</v>
+      </c>
+      <c r="S36" s="11">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="T36" s="11">
+        <v>48.79</v>
+      </c>
+      <c r="U36" s="11">
+        <v>46.32</v>
+      </c>
+      <c r="V36" s="11">
+        <v>47.55</v>
+      </c>
+      <c r="W36" s="11">
+        <v>45.39</v>
+      </c>
+      <c r="X36" s="11">
+        <v>28.4</v>
+      </c>
+      <c r="Y36" s="11">
+        <v>37.94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B37" s="11">
+        <v>0</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0</v>
+      </c>
+      <c r="M37" s="11">
+        <v>0</v>
+      </c>
+      <c r="N37" s="11">
+        <v>0</v>
+      </c>
+      <c r="O37" s="11">
+        <v>0</v>
+      </c>
+      <c r="P37" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>0</v>
+      </c>
+      <c r="R37" s="11">
+        <v>0</v>
+      </c>
+      <c r="S37" s="11">
+        <v>0</v>
+      </c>
+      <c r="T37" s="11">
+        <v>0</v>
+      </c>
+      <c r="U37" s="11">
+        <v>0</v>
+      </c>
+      <c r="V37" s="11">
+        <v>0</v>
+      </c>
+      <c r="W37" s="11">
+        <v>0</v>
+      </c>
+      <c r="X37" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="11">
+        <v>91.43</v>
+      </c>
+      <c r="C38" s="11">
+        <v>81.63</v>
+      </c>
+      <c r="D38" s="11">
+        <v>94.36</v>
+      </c>
+      <c r="E38" s="11">
+        <v>83.3</v>
+      </c>
+      <c r="F38" s="11">
+        <v>64.48</v>
+      </c>
+      <c r="G38" s="11">
+        <v>53.26</v>
+      </c>
+      <c r="H38" s="11">
+        <v>52.62</v>
+      </c>
+      <c r="I38" s="11">
+        <v>41.63</v>
+      </c>
+      <c r="J38" s="11">
+        <v>37.57</v>
+      </c>
+      <c r="K38" s="11">
+        <v>30</v>
+      </c>
+      <c r="L38" s="11">
+        <v>27.12</v>
+      </c>
+      <c r="M38" s="11">
+        <v>26.09</v>
+      </c>
+      <c r="N38" s="11">
+        <v>24.75</v>
+      </c>
+      <c r="O38" s="11">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="P38" s="11">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>16.73</v>
+      </c>
+      <c r="R38" s="11">
+        <v>16.16</v>
+      </c>
+      <c r="S38" s="11">
+        <v>15.21</v>
+      </c>
+      <c r="T38" s="11">
+        <v>14.62</v>
+      </c>
+      <c r="U38" s="11">
+        <v>13.62</v>
+      </c>
+      <c r="V38" s="11">
+        <v>12.83</v>
+      </c>
+      <c r="W38" s="11">
+        <v>11.13</v>
+      </c>
+      <c r="X38" s="11">
+        <v>15.63</v>
+      </c>
+      <c r="Y38" s="11">
+        <v>15.54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0.68</v>
+      </c>
+      <c r="L39" s="11">
+        <v>1.91</v>
+      </c>
+      <c r="M39" s="11">
+        <v>10.8</v>
+      </c>
+      <c r="N39" s="11">
+        <v>18.86</v>
+      </c>
+      <c r="O39" s="11">
+        <v>21.59</v>
+      </c>
+      <c r="P39" s="11">
+        <v>22.31</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>22.94</v>
+      </c>
+      <c r="R39" s="11">
+        <v>22.1</v>
+      </c>
+      <c r="S39" s="11">
+        <v>24.38</v>
+      </c>
+      <c r="T39" s="11">
+        <v>22.65</v>
+      </c>
+      <c r="U39" s="11">
+        <v>23.69</v>
+      </c>
+      <c r="V39" s="11">
+        <v>24.94</v>
+      </c>
+      <c r="W39" s="11">
+        <v>25.04</v>
+      </c>
+      <c r="X39" s="11">
+        <v>28.12</v>
+      </c>
+      <c r="Y39" s="11">
+        <v>31.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C40" s="11">
+        <v>1.18</v>
+      </c>
+      <c r="D40" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="E40" s="11">
+        <v>1.46</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1.84</v>
+      </c>
+      <c r="G40" s="11">
+        <v>2.34</v>
+      </c>
+      <c r="H40" s="11">
+        <v>2.97</v>
+      </c>
+      <c r="I40" s="11">
+        <v>4.03</v>
+      </c>
+      <c r="J40" s="11">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="K40" s="11">
+        <v>6.54</v>
+      </c>
+      <c r="L40" s="11">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="M40" s="11">
+        <v>9.85</v>
+      </c>
+      <c r="N40" s="11">
+        <v>13.41</v>
+      </c>
+      <c r="O40" s="11">
+        <v>14.9</v>
+      </c>
+      <c r="P40" s="11">
+        <v>15.18</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>14.84</v>
+      </c>
+      <c r="R40" s="11">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="S40" s="11">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="T40" s="11">
+        <v>17.72</v>
+      </c>
+      <c r="U40" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="V40" s="11">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="W40" s="11">
+        <v>20.93</v>
+      </c>
+      <c r="X40" s="11">
+        <v>20.28</v>
+      </c>
+      <c r="Y40" s="11">
+        <v>23.51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A44" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D45" s="8">
+        <v>2002</v>
+      </c>
+      <c r="E45" s="8">
+        <v>2003</v>
+      </c>
+      <c r="F45" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G45" s="8">
+        <v>2005</v>
+      </c>
+      <c r="H45" s="8">
+        <v>2006</v>
+      </c>
+      <c r="I45" s="8">
+        <v>2007</v>
+      </c>
+      <c r="J45" s="8">
+        <v>2008</v>
+      </c>
+      <c r="K45" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L45" s="8">
+        <v>2010</v>
+      </c>
+      <c r="M45" s="8">
+        <v>2011</v>
+      </c>
+      <c r="N45" s="8">
+        <v>2012</v>
+      </c>
+      <c r="O45" s="8">
+        <v>2013</v>
+      </c>
+      <c r="P45" s="8">
+        <v>2014</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>2015</v>
+      </c>
+      <c r="R45" s="8">
+        <v>2016</v>
+      </c>
+      <c r="S45" s="8">
+        <v>2017</v>
+      </c>
+      <c r="T45" s="8">
+        <v>2018</v>
+      </c>
+      <c r="U45" s="8">
+        <v>2019</v>
+      </c>
+      <c r="V45" s="8">
+        <v>2020</v>
+      </c>
+      <c r="W45" s="8">
+        <v>2021</v>
+      </c>
+      <c r="X45" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="10">
+        <v>276.64163499999995</v>
+      </c>
+      <c r="C46" s="10">
+        <v>279.00865600000003</v>
+      </c>
+      <c r="D46" s="10">
+        <v>285.27601100000004</v>
+      </c>
+      <c r="E46" s="10">
+        <v>293.88476499999996</v>
+      </c>
+      <c r="F46" s="10">
+        <v>303.34415200000001</v>
+      </c>
+      <c r="G46" s="10">
+        <v>303.69695200000001</v>
+      </c>
+      <c r="H46" s="10">
+        <v>314.11918000000003</v>
+      </c>
+      <c r="I46" s="10">
+        <v>313.88878899999997</v>
+      </c>
+      <c r="J46" s="10">
+        <v>319.12793099999999</v>
+      </c>
+      <c r="K46" s="10">
+        <v>292.63604400000003</v>
+      </c>
+      <c r="L46" s="10">
+        <v>302.06870500000002</v>
+      </c>
+      <c r="M46" s="10">
+        <v>302.58386900000005</v>
+      </c>
+      <c r="N46" s="10">
+        <v>299.28602000000001</v>
+      </c>
+      <c r="O46" s="10">
+        <v>289.81588199999999</v>
+      </c>
+      <c r="P46" s="10">
+        <v>279.84082599999999</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>283.005988</v>
+      </c>
+      <c r="R46" s="10">
+        <v>289.77993700000002</v>
+      </c>
+      <c r="S46" s="10">
+        <v>295.84248500000001</v>
+      </c>
+      <c r="T46" s="10">
+        <v>289.72090800000001</v>
+      </c>
+      <c r="U46" s="10">
+        <v>293.86568299999999</v>
+      </c>
+      <c r="V46" s="10">
+        <v>280.54348900000002</v>
+      </c>
+      <c r="W46" s="10">
+        <v>289.08200499999998</v>
+      </c>
+      <c r="X46" s="10">
+        <v>283.973795</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="11">
+        <v>1.3939999999999999</v>
+      </c>
+      <c r="C47" s="11">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="D47" s="11">
+        <v>2.71</v>
+      </c>
+      <c r="E47" s="11">
+        <v>3.3730000000000002</v>
+      </c>
+      <c r="F47" s="11">
+        <v>4.22</v>
+      </c>
+      <c r="G47" s="11">
+        <v>4.673</v>
+      </c>
+      <c r="H47" s="11">
+        <v>5.1080000000000005</v>
+      </c>
+      <c r="I47" s="11">
+        <v>5.258</v>
+      </c>
+      <c r="J47" s="11">
+        <v>5.9660000000000002</v>
+      </c>
+      <c r="K47" s="11">
+        <v>7.556</v>
+      </c>
+      <c r="L47" s="11">
+        <v>9.4410000000000007</v>
+      </c>
+      <c r="M47" s="11">
+        <v>10.834</v>
+      </c>
+      <c r="N47" s="11">
+        <v>12.487</v>
+      </c>
+      <c r="O47" s="11">
+        <v>17.093</v>
+      </c>
+      <c r="P47" s="11">
+        <v>18.734000000000002</v>
+      </c>
+      <c r="Q47" s="11">
+        <v>19.396999999999998</v>
+      </c>
+      <c r="R47" s="11">
+        <v>19.509</v>
+      </c>
+      <c r="S47" s="11">
+        <v>19.378167999999999</v>
+      </c>
+      <c r="T47" s="11">
+        <v>19.152588000000002</v>
+      </c>
+      <c r="U47" s="11">
+        <v>19.562583</v>
+      </c>
+      <c r="V47" s="11">
+        <v>19.633780000000002</v>
+      </c>
+      <c r="W47" s="11">
+        <v>19.070767</v>
+      </c>
+      <c r="X47" s="11">
+        <v>17.615925000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="11">
+        <v>30.524000000000001</v>
+      </c>
+      <c r="C48" s="11">
+        <v>36.774999999999999</v>
+      </c>
+      <c r="D48" s="11">
+        <v>40.468000000000004</v>
+      </c>
+      <c r="E48" s="11">
+        <v>44.116999999999997</v>
+      </c>
+      <c r="F48" s="11">
+        <v>50.877000000000002</v>
+      </c>
+      <c r="G48" s="11">
+        <v>49.418999999999997</v>
+      </c>
+      <c r="H48" s="11">
+        <v>50.438000000000002</v>
+      </c>
+      <c r="I48" s="11">
+        <v>49.734999999999999</v>
+      </c>
+      <c r="J48" s="11">
+        <v>48.591000000000001</v>
+      </c>
+      <c r="K48" s="11">
+        <v>43.415999999999997</v>
+      </c>
+      <c r="L48" s="11">
+        <v>44.433999999999997</v>
+      </c>
+      <c r="M48" s="11">
+        <v>50.139000000000003</v>
+      </c>
+      <c r="N48" s="11">
+        <v>54.11</v>
+      </c>
+      <c r="O48" s="11">
+        <v>48.493000000000002</v>
+      </c>
+      <c r="P48" s="11">
+        <v>46.524000000000001</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>45.387999999999998</v>
+      </c>
+      <c r="R48" s="11">
+        <v>38.402999999999999</v>
+      </c>
+      <c r="S48" s="11">
+        <v>35.096179999999997</v>
+      </c>
+      <c r="T48" s="11">
+        <v>30.955663000000001</v>
+      </c>
+      <c r="U48" s="11">
+        <v>21.252800000000001</v>
+      </c>
+      <c r="V48" s="11">
+        <v>15.042968999999999</v>
+      </c>
+      <c r="W48" s="11">
+        <v>15.936007</v>
+      </c>
+      <c r="X48" s="11">
+        <v>24.196034000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="11">
+        <v>101.36</v>
+      </c>
+      <c r="C49" s="11">
+        <v>104.188</v>
+      </c>
+      <c r="D49" s="11">
+        <v>99.414000000000001</v>
+      </c>
+      <c r="E49" s="11">
+        <v>117.3</v>
+      </c>
+      <c r="F49" s="11">
+        <v>129.77199999999999</v>
+      </c>
+      <c r="G49" s="11">
+        <v>149.262</v>
+      </c>
+      <c r="H49" s="11">
+        <v>158.07900000000001</v>
+      </c>
+      <c r="I49" s="11">
+        <v>172.64599999999999</v>
+      </c>
+      <c r="J49" s="11">
+        <v>172.69900000000001</v>
+      </c>
+      <c r="K49" s="11">
+        <v>147.26900000000001</v>
+      </c>
+      <c r="L49" s="11">
+        <v>152.738</v>
+      </c>
+      <c r="M49" s="11">
+        <v>144.548</v>
+      </c>
+      <c r="N49" s="11">
+        <v>129.05799999999999</v>
+      </c>
+      <c r="O49" s="11">
+        <v>108.875</v>
+      </c>
+      <c r="P49" s="11">
+        <v>93.637</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>110.86</v>
+      </c>
+      <c r="R49" s="11">
+        <v>126.148</v>
+      </c>
+      <c r="S49" s="11">
+        <v>140.34928400000001</v>
+      </c>
+      <c r="T49" s="11">
+        <v>128.537553</v>
+      </c>
+      <c r="U49" s="11">
+        <v>141.687003</v>
+      </c>
+      <c r="V49" s="11">
+        <v>133.68278400000003</v>
+      </c>
+      <c r="W49" s="11">
+        <v>143.99793</v>
+      </c>
+      <c r="X49" s="11">
+        <v>141.445312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="11">
+        <v>4.7050000000000001</v>
+      </c>
+      <c r="C50" s="11">
+        <v>4.5069999999999997</v>
+      </c>
+      <c r="D50" s="11">
+        <v>4.6619999999999999</v>
+      </c>
+      <c r="E50" s="11">
+        <v>5.3410000000000002</v>
+      </c>
+      <c r="F50" s="11">
+        <v>5.4372659999999993</v>
+      </c>
+      <c r="G50" s="11">
+        <v>5.3244600000000002</v>
+      </c>
+      <c r="H50" s="11">
+        <v>5.5273659999999998</v>
+      </c>
+      <c r="I50" s="11">
+        <v>5.5691280000000001</v>
+      </c>
+      <c r="J50" s="11">
+        <v>5.5203149999999992</v>
+      </c>
+      <c r="K50" s="11">
+        <v>5.3418220000000005</v>
+      </c>
+      <c r="L50" s="11">
+        <v>5.3759160000000001</v>
+      </c>
+      <c r="M50" s="11">
+        <v>5.6542630000000003</v>
+      </c>
+      <c r="N50" s="11">
+        <v>5.591685</v>
+      </c>
+      <c r="O50" s="11">
+        <v>5.6592279999999997</v>
+      </c>
+      <c r="P50" s="11">
+        <v>5.9163329999999998</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>6.1849709999999991</v>
+      </c>
+      <c r="R50" s="11">
+        <v>6.2885730000000004</v>
+      </c>
+      <c r="S50" s="11">
+        <v>6.2011589999999996</v>
+      </c>
+      <c r="T50" s="11">
+        <v>6.1053900000000008</v>
+      </c>
+      <c r="U50" s="11">
+        <v>6.0748599999999993</v>
+      </c>
+      <c r="V50" s="11">
+        <v>6.0261120000000004</v>
+      </c>
+      <c r="W50" s="11">
+        <v>5.9137870000000001</v>
+      </c>
+      <c r="X50" s="11">
+        <v>5.8369200000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11">
+        <v>50.899635000000004</v>
+      </c>
+      <c r="C51" s="11">
+        <v>53.925656000000004</v>
+      </c>
+      <c r="D51" s="11">
+        <v>47.262011000000001</v>
+      </c>
+      <c r="E51" s="11">
+        <v>44.276765000000005</v>
+      </c>
+      <c r="F51" s="11">
+        <v>49.908006</v>
+      </c>
+      <c r="G51" s="11">
+        <v>42.926900000000003</v>
+      </c>
+      <c r="H51" s="11">
+        <v>43.424963000000005</v>
+      </c>
+      <c r="I51" s="11">
+        <v>38.481349000000002</v>
+      </c>
+      <c r="J51" s="11">
+        <v>47.226537999999998</v>
+      </c>
+      <c r="K51" s="11">
+        <v>53.442678000000008</v>
+      </c>
+      <c r="L51" s="11">
+        <v>54.406663000000002</v>
+      </c>
+      <c r="M51" s="11">
+        <v>47.756917999999992</v>
+      </c>
+      <c r="N51" s="11">
+        <v>43.85400099999999</v>
+      </c>
+      <c r="O51" s="11">
+        <v>54.671594999999996</v>
+      </c>
+      <c r="P51" s="11">
+        <v>60.256342999999994</v>
+      </c>
+      <c r="Q51" s="11">
+        <v>46.969467999999999</v>
+      </c>
+      <c r="R51" s="11">
+        <v>44.256959999999999</v>
+      </c>
+      <c r="S51" s="11">
+        <v>38.02467</v>
+      </c>
+      <c r="T51" s="11">
+        <v>50.502750999999996</v>
+      </c>
+      <c r="U51" s="11">
+        <v>48.153516000000003</v>
+      </c>
+      <c r="V51" s="11">
+        <v>49.495255</v>
+      </c>
+      <c r="W51" s="11">
+        <v>47.478359999999995</v>
+      </c>
+      <c r="X51" s="11">
+        <v>30.290742000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="11">
+        <v>87.177999999999997</v>
+      </c>
+      <c r="C52" s="11">
+        <v>76.582999999999998</v>
+      </c>
+      <c r="D52" s="11">
+        <v>89.334999999999994</v>
+      </c>
+      <c r="E52" s="11">
+        <v>77.99499999999999</v>
+      </c>
+      <c r="F52" s="11">
+        <v>61.256999999999998</v>
+      </c>
+      <c r="G52" s="11">
+        <v>49.72</v>
+      </c>
+      <c r="H52" s="11">
+        <v>48.539000000000001</v>
+      </c>
+      <c r="I52" s="11">
+        <v>38.125999999999998</v>
+      </c>
+      <c r="J52" s="11">
+        <v>34.073999999999998</v>
+      </c>
+      <c r="K52" s="11">
+        <v>28.395</v>
+      </c>
+      <c r="L52" s="11">
+        <v>24.635999999999999</v>
+      </c>
+      <c r="M52" s="11">
+        <v>22.998000000000001</v>
+      </c>
+      <c r="N52" s="11">
+        <v>21.907</v>
+      </c>
+      <c r="O52" s="11">
+        <v>18.529</v>
+      </c>
+      <c r="P52" s="11">
+        <v>17.276</v>
+      </c>
+      <c r="Q52" s="11">
+        <v>16.408000000000001</v>
+      </c>
+      <c r="R52" s="11">
+        <v>15.369</v>
+      </c>
+      <c r="S52" s="11">
+        <v>14.660928999999999</v>
+      </c>
+      <c r="T52" s="11">
+        <v>14.084215999999998</v>
+      </c>
+      <c r="U52" s="11">
+        <v>13.231503999999999</v>
+      </c>
+      <c r="V52" s="11">
+        <v>12.947053</v>
+      </c>
+      <c r="W52" s="11">
+        <v>10.706386</v>
+      </c>
+      <c r="X52" s="11">
+        <v>15.960751999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C53" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D53" s="11">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E53" s="11">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F53" s="11">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G53" s="11">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H53" s="11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I53" s="11">
+        <v>3.8953000000000002E-2</v>
+      </c>
+      <c r="J53" s="11">
+        <v>0.192965</v>
+      </c>
+      <c r="K53" s="11">
+        <v>0.676481</v>
+      </c>
+      <c r="L53" s="11">
+        <v>1.9151359999999999</v>
+      </c>
+      <c r="M53" s="11">
+        <v>10.805198000000001</v>
+      </c>
+      <c r="N53" s="11">
+        <v>18.871206999999998</v>
+      </c>
+      <c r="O53" s="11">
+        <v>21.598096999999999</v>
+      </c>
+      <c r="P53" s="11">
+        <v>22.318840000000002</v>
+      </c>
+      <c r="Q53" s="11">
+        <v>22.954666999999997</v>
+      </c>
+      <c r="R53" s="11">
+        <v>22.116733999999997</v>
+      </c>
+      <c r="S53" s="11">
+        <v>24.390185999999996</v>
+      </c>
+      <c r="T53" s="11">
+        <v>22.666312999999999</v>
+      </c>
+      <c r="U53" s="11">
+        <v>23.701374999999999</v>
+      </c>
+      <c r="V53" s="11">
+        <v>24.953979</v>
+      </c>
+      <c r="W53" s="11">
+        <v>25.051465</v>
+      </c>
+      <c r="X53" s="11">
+        <v>28.133931999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="11">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="C54" s="11">
+        <v>1.179</v>
+      </c>
+      <c r="D54" s="11">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="E54" s="11">
+        <v>1.458</v>
+      </c>
+      <c r="F54" s="11">
+        <v>1.8438800000000002</v>
+      </c>
+      <c r="G54" s="11">
+        <v>2.340592</v>
+      </c>
+      <c r="H54" s="11">
+        <v>2.967851</v>
+      </c>
+      <c r="I54" s="11">
+        <v>4.0343590000000003</v>
+      </c>
+      <c r="J54" s="11">
+        <v>4.8581130000000003</v>
+      </c>
+      <c r="K54" s="11">
+        <v>6.5390630000000005</v>
+      </c>
+      <c r="L54" s="11">
+        <v>9.1219900000000003</v>
+      </c>
+      <c r="M54" s="11">
+        <v>9.84849</v>
+      </c>
+      <c r="N54" s="11">
+        <v>13.407127000000001</v>
+      </c>
+      <c r="O54" s="11">
+        <v>14.896962</v>
+      </c>
+      <c r="P54" s="11">
+        <v>15.17831</v>
+      </c>
+      <c r="Q54" s="11">
+        <v>14.843881999999999</v>
+      </c>
+      <c r="R54" s="11">
+        <v>17.688669999999998</v>
+      </c>
+      <c r="S54" s="11">
+        <v>17.741909</v>
+      </c>
+      <c r="T54" s="11">
+        <v>17.716434</v>
+      </c>
+      <c r="U54" s="11">
+        <v>20.202042000000002</v>
+      </c>
+      <c r="V54" s="11">
+        <v>18.761557</v>
+      </c>
+      <c r="W54" s="11">
+        <v>20.927302999999998</v>
+      </c>
+      <c r="X54" s="11">
+        <v>20.494178000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A59" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C59" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D59" s="8">
+        <v>2002</v>
+      </c>
+      <c r="E59" s="8">
+        <v>2003</v>
+      </c>
+      <c r="F59" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G59" s="8">
+        <v>2005</v>
+      </c>
+      <c r="H59" s="8">
+        <v>2006</v>
+      </c>
+      <c r="I59" s="8">
+        <v>2007</v>
+      </c>
+      <c r="J59" s="8">
+        <v>2008</v>
+      </c>
+      <c r="K59" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L59" s="8">
+        <v>2010</v>
+      </c>
+      <c r="M59" s="8">
+        <v>2011</v>
+      </c>
+      <c r="N59" s="8">
+        <v>2012</v>
+      </c>
+      <c r="O59" s="8">
+        <v>2013</v>
+      </c>
+      <c r="P59" s="8">
+        <v>2014</v>
+      </c>
+      <c r="Q59" s="8">
+        <v>2015</v>
+      </c>
+      <c r="R59" s="8">
+        <v>2016</v>
+      </c>
+      <c r="S59" s="8">
+        <v>2017</v>
+      </c>
+      <c r="T59" s="8">
+        <v>2018</v>
+      </c>
+      <c r="U59" s="8">
+        <v>2019</v>
+      </c>
+      <c r="V59" s="8">
+        <v>2020</v>
+      </c>
+      <c r="W59" s="8">
+        <v>2021</v>
+      </c>
+      <c r="X59" s="8">
+        <v>2022</v>
+      </c>
+      <c r="Y59" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C60" s="11">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D60" s="11">
+        <v>1.37</v>
+      </c>
+      <c r="E60" s="11">
+        <v>1.57</v>
+      </c>
+      <c r="F60" s="11">
+        <v>1.52</v>
+      </c>
+      <c r="G60" s="11">
+        <v>1.54</v>
+      </c>
+      <c r="H60" s="11">
+        <v>1.57</v>
+      </c>
+      <c r="I60" s="11">
+        <v>1.63</v>
+      </c>
+      <c r="J60" s="11">
+        <v>1.83</v>
+      </c>
+      <c r="K60" s="11">
+        <v>2.2199999999999998</v>
+      </c>
+      <c r="L60" s="11">
+        <v>2.56</v>
+      </c>
+      <c r="M60" s="11">
+        <v>2.99</v>
+      </c>
+      <c r="N60" s="11">
+        <v>3.9</v>
+      </c>
+      <c r="O60" s="11">
+        <v>4.08</v>
+      </c>
+      <c r="P60" s="11">
+        <v>4.13</v>
+      </c>
+      <c r="Q60" s="11">
+        <v>4.13</v>
+      </c>
+      <c r="R60" s="11">
+        <v>4.21</v>
+      </c>
+      <c r="S60" s="11">
+        <v>4.22</v>
+      </c>
+      <c r="T60" s="11">
+        <v>4.26</v>
+      </c>
+      <c r="U60" s="11">
+        <v>4.22</v>
+      </c>
+      <c r="V60" s="11">
+        <v>4.21</v>
+      </c>
+      <c r="W60" s="11">
+        <v>4.1899999999999995</v>
+      </c>
+      <c r="X60" s="11">
+        <v>4.17</v>
+      </c>
+      <c r="Y60" s="11">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="11">
+        <v>8.67</v>
+      </c>
+      <c r="C61" s="11">
+        <v>8.6</v>
+      </c>
+      <c r="D61" s="11">
+        <v>8.6</v>
+      </c>
+      <c r="E61" s="11">
+        <v>8.6</v>
+      </c>
+      <c r="F61" s="11">
+        <v>8.35</v>
+      </c>
+      <c r="G61" s="11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H61" s="11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I61" s="11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J61" s="11">
+        <v>8.06</v>
+      </c>
+      <c r="K61" s="11">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="L61" s="11">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="M61" s="11">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="N61" s="11">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="O61" s="11">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="P61" s="11">
+        <v>9.83</v>
+      </c>
+      <c r="Q61" s="11">
+        <v>9.69</v>
+      </c>
+      <c r="R61" s="11">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="S61" s="11">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="T61" s="11">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="U61" s="11">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="V61" s="11">
+        <v>7.74</v>
+      </c>
+      <c r="W61" s="11">
+        <v>6.81</v>
+      </c>
+      <c r="X61" s="11">
+        <v>6.81</v>
+      </c>
+      <c r="Y61" s="11">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="11">
+        <v>53.35</v>
+      </c>
+      <c r="C62" s="11">
+        <v>53.57</v>
+      </c>
+      <c r="D62" s="11">
+        <v>53.54</v>
+      </c>
+      <c r="E62" s="11">
+        <v>54.78</v>
+      </c>
+      <c r="F62" s="11">
+        <v>57.62</v>
+      </c>
+      <c r="G62" s="11">
+        <v>60.79</v>
+      </c>
+      <c r="H62" s="11">
+        <v>64.31</v>
+      </c>
+      <c r="I62" s="11">
+        <v>67.459999999999994</v>
+      </c>
+      <c r="J62" s="11">
+        <v>70.95</v>
+      </c>
+      <c r="K62" s="11">
+        <v>71.14</v>
+      </c>
+      <c r="L62" s="11">
+        <v>72.459999999999994</v>
+      </c>
+      <c r="M62" s="11">
+        <v>73.33</v>
+      </c>
+      <c r="N62" s="11">
+        <v>73.22</v>
+      </c>
+      <c r="O62" s="11">
+        <v>70.95</v>
+      </c>
+      <c r="P62" s="11">
+        <v>67.48</v>
+      </c>
+      <c r="Q62" s="11">
+        <v>61.81</v>
+      </c>
+      <c r="R62" s="11">
+        <v>58.22</v>
+      </c>
+      <c r="S62" s="11">
+        <v>57.4</v>
+      </c>
+      <c r="T62" s="11">
+        <v>57.35</v>
+      </c>
+      <c r="U62" s="11">
+        <v>57.41</v>
+      </c>
+      <c r="V62" s="11">
+        <v>56.24</v>
+      </c>
+      <c r="W62" s="11">
+        <v>55.63</v>
+      </c>
+      <c r="X62" s="11">
+        <v>56.32</v>
+      </c>
+      <c r="Y62" s="11">
+        <v>57.28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="11">
+        <v>16.39</v>
+      </c>
+      <c r="C63" s="11">
+        <v>16.46</v>
+      </c>
+      <c r="D63" s="11">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="E63" s="11">
+        <v>16.7</v>
+      </c>
+      <c r="F63" s="11">
+        <v>16.79</v>
+      </c>
+      <c r="G63" s="11">
+        <v>17.04</v>
+      </c>
+      <c r="H63" s="11">
+        <v>17.11</v>
+      </c>
+      <c r="I63" s="11">
+        <v>17.16</v>
+      </c>
+      <c r="J63" s="11">
+        <v>17.32</v>
+      </c>
+      <c r="K63" s="11">
+        <v>17.41</v>
+      </c>
+      <c r="L63" s="11">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="M63" s="11">
+        <v>17.78</v>
+      </c>
+      <c r="N63" s="11">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="O63" s="11">
+        <v>18.05</v>
+      </c>
+      <c r="P63" s="11">
+        <v>18.12</v>
+      </c>
+      <c r="Q63" s="11">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="R63" s="11">
+        <v>18.32</v>
+      </c>
+      <c r="S63" s="11">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="T63" s="11">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="U63" s="11">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="V63" s="11">
+        <v>18.75</v>
+      </c>
+      <c r="W63" s="11">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="X63" s="11">
+        <v>18.93</v>
+      </c>
+      <c r="Y63" s="11">
+        <v>18.850000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="11">
+        <v>0</v>
+      </c>
+      <c r="C64" s="11">
+        <v>0</v>
+      </c>
+      <c r="D64" s="11">
+        <v>0</v>
+      </c>
+      <c r="E64" s="11">
+        <v>0</v>
+      </c>
+      <c r="F64" s="11">
+        <v>0</v>
+      </c>
+      <c r="G64" s="11">
+        <v>0</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
+      </c>
+      <c r="I64" s="11">
+        <v>0</v>
+      </c>
+      <c r="J64" s="11">
+        <v>0</v>
+      </c>
+      <c r="K64" s="11">
+        <v>0</v>
+      </c>
+      <c r="L64" s="11">
+        <v>0</v>
+      </c>
+      <c r="M64" s="11">
+        <v>0</v>
+      </c>
+      <c r="N64" s="11">
+        <v>0</v>
+      </c>
+      <c r="O64" s="11">
+        <v>0</v>
+      </c>
+      <c r="P64" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="11">
+        <v>0</v>
+      </c>
+      <c r="R64" s="11">
+        <v>0</v>
+      </c>
+      <c r="S64" s="11">
+        <v>0</v>
+      </c>
+      <c r="T64" s="11">
+        <v>0</v>
+      </c>
+      <c r="U64" s="11">
+        <v>0</v>
+      </c>
+      <c r="V64" s="11">
+        <v>0</v>
+      </c>
+      <c r="W64" s="11">
+        <v>0</v>
+      </c>
+      <c r="X64" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="11">
+        <v>1.26</v>
+      </c>
+      <c r="C65" s="11">
+        <v>1.36</v>
+      </c>
+      <c r="D65" s="11">
+        <v>1.36</v>
+      </c>
+      <c r="E65" s="11">
+        <v>1.36</v>
+      </c>
+      <c r="F65" s="11">
+        <v>1.36</v>
+      </c>
+      <c r="G65" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="H65" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="I65" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="J65" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="K65" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="L65" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="M65" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="N65" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="O65" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="P65" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="Q65" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="R65" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="S65" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="T65" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="U65" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="V65" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="W65" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="X65" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="Y65" s="11">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="C66" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="D66" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="E66" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="F66" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="G66" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="I66" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="J66" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="K66" s="11">
+        <v>1.26</v>
+      </c>
+      <c r="L66" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="M66" s="11">
+        <v>13.14</v>
+      </c>
+      <c r="N66" s="11">
+        <v>16.79</v>
+      </c>
+      <c r="O66" s="11">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="P66" s="11">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Q66" s="11">
+        <v>18.91</v>
+      </c>
+      <c r="R66" s="11">
+        <v>19.29</v>
+      </c>
+      <c r="S66" s="11">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="T66" s="11">
+        <v>20.11</v>
+      </c>
+      <c r="U66" s="11">
+        <v>20.87</v>
+      </c>
+      <c r="V66" s="11">
+        <v>21.66</v>
+      </c>
+      <c r="W66" s="11">
+        <v>22.6</v>
+      </c>
+      <c r="X66" s="11">
+        <v>24.56</v>
+      </c>
+      <c r="Y66" s="11">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="C67" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="D67" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="E67" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="F67" s="11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G67" s="11">
+        <v>1.63</v>
+      </c>
+      <c r="H67" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="I67" s="11">
+        <v>2.7</v>
+      </c>
+      <c r="J67" s="11">
+        <v>3.53</v>
+      </c>
+      <c r="K67" s="11">
+        <v>4.88</v>
+      </c>
+      <c r="L67" s="11">
+        <v>5.79</v>
+      </c>
+      <c r="M67" s="11">
+        <v>6.92</v>
+      </c>
+      <c r="N67" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="O67" s="11">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="P67" s="11">
+        <v>8.68</v>
+      </c>
+      <c r="Q67" s="11">
+        <v>9.14</v>
+      </c>
+      <c r="R67" s="11">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="S67" s="11">
+        <v>9.74</v>
+      </c>
+      <c r="T67" s="11">
+        <v>10.23</v>
+      </c>
+      <c r="U67" s="11">
+        <v>10.68</v>
+      </c>
+      <c r="V67" s="11">
+        <v>10.87</v>
+      </c>
+      <c r="W67" s="11">
+        <v>11.25</v>
+      </c>
+      <c r="X67" s="11">
+        <v>11.82</v>
+      </c>
+      <c r="Y67" s="11">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A70" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A71" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C71" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D71" s="8">
+        <v>2002</v>
+      </c>
+      <c r="E71" s="8">
+        <v>2003</v>
+      </c>
+      <c r="F71" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G71" s="8">
+        <v>2005</v>
+      </c>
+      <c r="H71" s="8">
+        <v>2006</v>
+      </c>
+      <c r="I71" s="8">
+        <v>2007</v>
+      </c>
+      <c r="J71" s="8">
+        <v>2008</v>
+      </c>
+      <c r="K71" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L71" s="8">
+        <v>2010</v>
+      </c>
+      <c r="M71" s="8">
+        <v>2011</v>
+      </c>
+      <c r="N71" s="8">
+        <v>2012</v>
+      </c>
+      <c r="O71" s="8">
+        <v>2013</v>
+      </c>
+      <c r="P71" s="8">
+        <v>2014</v>
+      </c>
+      <c r="Q71" s="8">
+        <v>2015</v>
+      </c>
+      <c r="R71" s="8">
+        <v>2016</v>
+      </c>
+      <c r="S71" s="8">
+        <v>2017</v>
+      </c>
+      <c r="T71" s="8">
+        <v>2018</v>
+      </c>
+      <c r="U71" s="8">
+        <v>2019</v>
+      </c>
+      <c r="V71" s="8">
+        <v>2020</v>
+      </c>
+      <c r="W71" s="8">
+        <v>2021</v>
+      </c>
+      <c r="X71" s="8">
+        <v>2022</v>
+      </c>
+      <c r="Y71" s="8">
+        <v>2023</v>
+      </c>
+      <c r="Z71" s="8">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="11">
+        <v>0.54149999999999998</v>
+      </c>
+      <c r="C72" s="11">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D72" s="11">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="E72" s="11">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="F72" s="11">
+        <v>0.87750000000000006</v>
+      </c>
+      <c r="G72" s="11">
+        <v>0.87449999999999994</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="I72" s="11">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="J72" s="11">
+        <v>1.1564999999999999</v>
+      </c>
+      <c r="K72" s="11">
+        <v>1.520205</v>
+      </c>
+      <c r="L72" s="11">
+        <v>1.825715</v>
+      </c>
+      <c r="M72" s="11">
+        <v>2.2620480000000001</v>
+      </c>
+      <c r="N72" s="11">
+        <v>3.1779999999999999</v>
+      </c>
+      <c r="O72" s="11">
+        <v>3.3439999999999999</v>
+      </c>
+      <c r="P72" s="11">
+        <v>3.359</v>
+      </c>
+      <c r="Q72" s="11">
+        <v>3.367</v>
+      </c>
+      <c r="R72" s="11">
+        <v>3.4390000000000001</v>
+      </c>
+      <c r="S72" s="11">
+        <v>3.450488</v>
+      </c>
+      <c r="T72" s="11">
+        <v>3.4910730000000001</v>
+      </c>
+      <c r="U72" s="11">
+        <v>3.454148</v>
+      </c>
+      <c r="V72" s="11">
+        <v>3.4391939999999996</v>
+      </c>
+      <c r="W72" s="11">
+        <v>3.4203809999999999</v>
+      </c>
+      <c r="X72" s="11">
+        <v>3.3924570000000003</v>
+      </c>
+      <c r="Y72" s="11">
+        <v>3.3989129999999999</v>
+      </c>
+      <c r="Z72" s="11">
+        <v>3.3679129999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="11">
+        <v>0.59</v>
+      </c>
+      <c r="C73" s="11">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="D73" s="11">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="E73" s="11">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="F73" s="11">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="G73" s="11">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="I73" s="11">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="J73" s="11">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="K73" s="11">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="L73" s="11">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="M73" s="11">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="N73" s="11">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="O73" s="11">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="P73" s="11">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="Q73" s="11">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="R73" s="11">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="S73" s="11">
+        <v>0.76719000000000004</v>
+      </c>
+      <c r="T73" s="11">
+        <v>0.76719000000000004</v>
+      </c>
+      <c r="U73" s="11">
+        <v>0.76719000000000004</v>
+      </c>
+      <c r="V73" s="11">
+        <v>0.77178999999999998</v>
+      </c>
+      <c r="W73" s="11">
+        <v>0.77178999999999998</v>
+      </c>
+      <c r="X73" s="11">
+        <v>0.77178999999999998</v>
+      </c>
+      <c r="Y73" s="11">
+        <v>0.77178999999999998</v>
+      </c>
+      <c r="Z73" s="11">
+        <v>0.77178999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" s="11">
+        <v>20.346</v>
+      </c>
+      <c r="C74" s="11">
+        <v>20.433999999999997</v>
+      </c>
+      <c r="D74" s="11">
+        <v>20.513999999999999</v>
+      </c>
+      <c r="E74" s="11">
+        <v>20.66</v>
+      </c>
+      <c r="F74" s="11">
+        <v>20.744</v>
+      </c>
+      <c r="G74" s="11">
+        <v>20.993000000000002</v>
+      </c>
+      <c r="H74" s="11">
+        <v>21.071999999999999</v>
+      </c>
+      <c r="I74" s="11">
+        <v>21.117000000000001</v>
+      </c>
+      <c r="J74" s="11">
+        <v>21.276</v>
+      </c>
+      <c r="K74" s="11">
+        <v>21.370999999999999</v>
+      </c>
+      <c r="L74" s="11">
+        <v>21.52</v>
+      </c>
+      <c r="M74" s="11">
+        <v>21.736999999999998</v>
+      </c>
+      <c r="N74" s="11">
+        <v>21.88</v>
+      </c>
+      <c r="O74" s="11">
+        <v>22.009</v>
+      </c>
+      <c r="P74" s="11">
+        <v>22.097999999999999</v>
+      </c>
+      <c r="Q74" s="11">
+        <v>22.22</v>
+      </c>
+      <c r="R74" s="11">
+        <v>22.298000000000002</v>
+      </c>
+      <c r="S74" s="11">
+        <v>22.426015</v>
+      </c>
+      <c r="T74" s="11">
+        <v>22.498587000000001</v>
+      </c>
+      <c r="U74" s="11">
+        <v>22.541086</v>
+      </c>
+      <c r="V74" s="11">
+        <v>22.694985000000003</v>
+      </c>
+      <c r="W74" s="11">
+        <v>22.749659999999999</v>
+      </c>
+      <c r="X74" s="11">
+        <v>22.860789</v>
+      </c>
+      <c r="Y74" s="11">
+        <v>22.911977</v>
+      </c>
+      <c r="Z74" s="11">
+        <v>22.938977000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="11">
+        <v>53.650499999999994</v>
+      </c>
+      <c r="C75" s="11">
+        <v>53.823</v>
+      </c>
+      <c r="D75" s="11">
+        <v>53.821999999999996</v>
+      </c>
+      <c r="E75" s="11">
+        <v>55.184000000000005</v>
+      </c>
+      <c r="F75" s="11">
+        <v>57.914499999999997</v>
+      </c>
+      <c r="G75" s="11">
+        <v>61.290499999999994</v>
+      </c>
+      <c r="H75" s="11">
+        <v>64.895499999999998</v>
+      </c>
+      <c r="I75" s="11">
+        <v>68.0655</v>
+      </c>
+      <c r="J75" s="11">
+        <v>71.5655</v>
+      </c>
+      <c r="K75" s="11">
+        <v>71.839794999999995</v>
+      </c>
+      <c r="L75" s="11">
+        <v>73.150284999999997</v>
+      </c>
+      <c r="M75" s="11">
+        <v>74.024951999999999</v>
+      </c>
+      <c r="N75" s="11">
+        <v>73.926000000000002</v>
+      </c>
+      <c r="O75" s="11">
+        <v>71.706000000000003</v>
+      </c>
+      <c r="P75" s="11">
+        <v>68.245000000000005</v>
+      </c>
+      <c r="Q75" s="11">
+        <v>62.571000000000005</v>
+      </c>
+      <c r="R75" s="11">
+        <v>58.991</v>
+      </c>
+      <c r="S75" s="11">
+        <v>58.178086</v>
+      </c>
+      <c r="T75" s="11">
+        <v>58.126239999999996</v>
+      </c>
+      <c r="U75" s="11">
+        <v>58.127802000000003</v>
+      </c>
+      <c r="V75" s="11">
+        <v>56.956506000000005</v>
+      </c>
+      <c r="W75" s="11">
+        <v>56.369798000000003</v>
+      </c>
+      <c r="X75" s="11">
+        <v>57.037187000000003</v>
+      </c>
+      <c r="Y75" s="11">
+        <v>61.318776999999997</v>
+      </c>
+      <c r="Z75" s="11">
+        <v>61.446776999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C76" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="D76" s="11">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E76" s="11">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F76" s="11">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G76" s="11">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H76" s="11">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I76" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="J76" s="11">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="K76" s="11">
+        <v>1.264</v>
+      </c>
+      <c r="L76" s="11">
+        <v>3.5967199999999999</v>
+      </c>
+      <c r="M76" s="11">
+        <v>13.041720000000002</v>
+      </c>
+      <c r="N76" s="11">
+        <v>16.658719999999999</v>
+      </c>
+      <c r="O76" s="11">
+        <v>18.03172</v>
+      </c>
+      <c r="P76" s="11">
+        <v>18.440719999999999</v>
+      </c>
+      <c r="Q76" s="11">
+        <v>18.741719999999997</v>
+      </c>
+      <c r="R76" s="11">
+        <v>19.11572</v>
+      </c>
+      <c r="S76" s="11">
+        <v>19.504010000000001</v>
+      </c>
+      <c r="T76" s="11">
+        <v>19.916312999999999</v>
+      </c>
+      <c r="U76" s="11">
+        <v>20.624991999999999</v>
+      </c>
+      <c r="V76" s="11">
+        <v>21.358758999999999</v>
+      </c>
+      <c r="W76" s="11">
+        <v>22.285972999999998</v>
+      </c>
+      <c r="X76" s="11">
+        <v>24.559967999999998</v>
+      </c>
+      <c r="Y76" s="11">
+        <v>29.356116</v>
+      </c>
+      <c r="Z76" s="11">
+        <v>36.013115999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" s="11">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="C77" s="11">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="D77" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="E77" s="11">
+        <v>0.874</v>
+      </c>
+      <c r="F77" s="11">
+        <v>1.127</v>
+      </c>
+      <c r="G77" s="11">
+        <v>1.635</v>
+      </c>
+      <c r="H77" s="11">
+        <v>1.9019999999999999</v>
+      </c>
+      <c r="I77" s="11">
+        <v>2.702</v>
+      </c>
+      <c r="J77" s="11">
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="K77" s="11">
+        <v>4.8789999999999996</v>
+      </c>
+      <c r="L77" s="11">
+        <v>5.7939999999999996</v>
+      </c>
+      <c r="M77" s="11">
+        <v>6.9180000000000001</v>
+      </c>
+      <c r="N77" s="11">
+        <v>8.1020000000000003</v>
+      </c>
+      <c r="O77" s="11">
+        <v>8.5419999999999998</v>
+      </c>
+      <c r="P77" s="11">
+        <v>8.6829999999999998</v>
+      </c>
+      <c r="Q77" s="11">
+        <v>9.1370000000000005</v>
+      </c>
+      <c r="R77" s="11">
+        <v>9.3840000000000003</v>
+      </c>
+      <c r="S77" s="11">
+        <v>9.7365779999999997</v>
+      </c>
+      <c r="T77" s="11">
+        <v>10.230245999999999</v>
+      </c>
+      <c r="U77" s="11">
+        <v>10.679459999999999</v>
+      </c>
+      <c r="V77" s="11">
+        <v>10.870621999999999</v>
+      </c>
+      <c r="W77" s="11">
+        <v>11.253733</v>
+      </c>
+      <c r="X77" s="11">
+        <v>11.820508</v>
+      </c>
+      <c r="Y77" s="11">
+        <v>12.3073</v>
+      </c>
+      <c r="Z77" s="11">
+        <v>12.9923</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A85" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" t="s">
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A86" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="R1" t="s">
+      <c r="B86" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D86" s="8">
+        <v>2001</v>
+      </c>
+      <c r="E86" s="8">
+        <v>2002</v>
+      </c>
+      <c r="F86" s="8">
+        <v>2003</v>
+      </c>
+      <c r="G86" s="8">
+        <v>2004</v>
+      </c>
+      <c r="H86" s="8">
+        <v>2005</v>
+      </c>
+      <c r="I86" s="8">
+        <v>2006</v>
+      </c>
+      <c r="J86" s="8">
+        <v>2007</v>
+      </c>
+      <c r="K86" s="8">
+        <v>2008</v>
+      </c>
+      <c r="L86" s="8">
+        <v>2009</v>
+      </c>
+      <c r="M86" s="8">
+        <v>2010</v>
+      </c>
+      <c r="N86" s="8">
+        <v>2011</v>
+      </c>
+      <c r="O86" s="8">
+        <v>2012</v>
+      </c>
+      <c r="P86" s="8">
+        <v>2013</v>
+      </c>
+      <c r="Q86" s="8">
+        <v>2014</v>
+      </c>
+      <c r="R86" s="8">
+        <v>2015</v>
+      </c>
+      <c r="S86" s="8">
+        <v>2016</v>
+      </c>
+      <c r="T86" s="8">
+        <v>2017</v>
+      </c>
+      <c r="U86" s="8">
+        <v>2018</v>
+      </c>
+      <c r="V86" s="8">
+        <v>2019</v>
+      </c>
+      <c r="W86" s="8">
+        <v>2020</v>
+      </c>
+      <c r="X86" s="8">
+        <v>2021</v>
+      </c>
+      <c r="Y86" s="8">
+        <v>2022</v>
+      </c>
+      <c r="Z86" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" t="s">
         <v>63</v>
       </c>
-      <c r="S1" t="s">
+      <c r="C87" s="11">
+        <v>44.35</v>
+      </c>
+      <c r="D87" s="11">
+        <v>48.38</v>
+      </c>
+      <c r="E87" s="11">
+        <v>50.6</v>
+      </c>
+      <c r="F87" s="11">
+        <v>50.97</v>
+      </c>
+      <c r="G87" s="11">
+        <v>45.63</v>
+      </c>
+      <c r="H87" s="11">
+        <v>49.15</v>
+      </c>
+      <c r="I87" s="11">
+        <v>44.99</v>
+      </c>
+      <c r="J87" s="11">
+        <v>46.28</v>
+      </c>
+      <c r="K87" s="11">
+        <v>40.03</v>
+      </c>
+      <c r="L87" s="11">
+        <v>44.96</v>
+      </c>
+      <c r="M87" s="11">
+        <v>44.16</v>
+      </c>
+      <c r="N87" s="11">
+        <v>45.73</v>
+      </c>
+      <c r="O87" s="11">
+        <v>43.1</v>
+      </c>
+      <c r="P87" s="11">
+        <v>42.14</v>
+      </c>
+      <c r="Q87" s="11">
+        <v>43.72</v>
+      </c>
+      <c r="R87" s="11">
+        <v>46.38</v>
+      </c>
+      <c r="S87" s="11">
+        <v>37.03</v>
+      </c>
+      <c r="T87" s="11">
+        <v>37.76</v>
+      </c>
+      <c r="U87" s="11">
+        <v>43.9</v>
+      </c>
+      <c r="V87" s="11">
+        <v>38.14</v>
+      </c>
+      <c r="W87" s="11">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="X87" s="11">
+        <v>42.79</v>
+      </c>
+      <c r="Y87" s="11">
+        <v>42.99</v>
+      </c>
+      <c r="Z87" s="11">
+        <v>51.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" t="s">
         <v>64</v>
       </c>
-      <c r="T1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U1" t="s">
-        <v>66</v>
-      </c>
-      <c r="V1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W1" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2">
-        <v>3.1</v>
-      </c>
-      <c r="D2">
-        <v>3.3</v>
-      </c>
-      <c r="E2">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F2">
-        <v>23.5</v>
-      </c>
-      <c r="G2">
-        <v>0.59</v>
-      </c>
-      <c r="H2">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3">
-        <v>17.2</v>
-      </c>
-      <c r="F3">
-        <v>22.6</v>
-      </c>
-      <c r="H3">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4">
-        <v>111.9</v>
-      </c>
-      <c r="F4">
-        <v>141.5</v>
-      </c>
-      <c r="H4">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5">
-        <v>6.3</v>
-      </c>
-      <c r="E5">
-        <v>5.8</v>
-      </c>
-      <c r="G5">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6">
-        <v>20.7</v>
-      </c>
-      <c r="D6">
-        <v>23.4</v>
-      </c>
-      <c r="E6">
-        <v>30.3</v>
-      </c>
-      <c r="F6">
-        <v>28.4</v>
-      </c>
-      <c r="G6">
-        <v>0.15</v>
-      </c>
-      <c r="H6">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
-        <v>0.6</v>
-      </c>
-      <c r="D7">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>16</v>
-      </c>
-      <c r="F7">
-        <v>15.6</v>
-      </c>
-      <c r="G7">
-        <v>0.03</v>
-      </c>
-      <c r="H7">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8">
-        <v>5.4</v>
-      </c>
-      <c r="D8">
-        <v>5.4</v>
-      </c>
-      <c r="E8">
-        <v>28.1</v>
-      </c>
-      <c r="F8">
-        <v>28.1</v>
-      </c>
-      <c r="G8">
-        <v>0.13</v>
-      </c>
-      <c r="H8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>16.8</v>
-      </c>
-      <c r="E9">
-        <v>20.5</v>
-      </c>
-      <c r="F9">
-        <v>20.3</v>
-      </c>
-      <c r="G9">
-        <v>0.2</v>
-      </c>
-      <c r="H9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>2000</v>
-      </c>
-      <c r="D13">
-        <v>2001</v>
-      </c>
-      <c r="E13">
-        <v>2002</v>
-      </c>
-      <c r="F13">
-        <v>2003</v>
-      </c>
-      <c r="G13">
-        <v>2004</v>
-      </c>
-      <c r="H13">
-        <v>2005</v>
-      </c>
-      <c r="I13">
-        <v>2006</v>
-      </c>
-      <c r="J13">
-        <v>2007</v>
-      </c>
-      <c r="K13">
-        <v>2008</v>
-      </c>
-      <c r="L13">
-        <v>2009</v>
-      </c>
-      <c r="M13">
-        <v>2010</v>
-      </c>
-      <c r="N13">
-        <v>2011</v>
-      </c>
-      <c r="O13">
-        <v>2012</v>
-      </c>
-      <c r="P13">
-        <v>2013</v>
-      </c>
-      <c r="Q13">
-        <v>2014</v>
-      </c>
-      <c r="R13">
-        <v>2015</v>
-      </c>
-      <c r="S13">
-        <v>2016</v>
-      </c>
-      <c r="T13">
-        <v>2017</v>
-      </c>
-      <c r="U13">
-        <v>2018</v>
-      </c>
-      <c r="V13">
-        <v>2019</v>
-      </c>
-      <c r="W13">
-        <v>2020</v>
-      </c>
-      <c r="X13">
-        <v>2021</v>
-      </c>
-      <c r="Y13">
-        <v>2022</v>
-      </c>
-      <c r="Z13">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14">
-        <v>44.35</v>
-      </c>
-      <c r="D14">
-        <v>48.38</v>
-      </c>
-      <c r="E14">
-        <v>50.6</v>
-      </c>
-      <c r="F14">
-        <v>50.97</v>
-      </c>
-      <c r="G14">
-        <v>45.63</v>
-      </c>
-      <c r="H14">
-        <v>49.15</v>
-      </c>
-      <c r="I14">
-        <v>44.99</v>
-      </c>
-      <c r="J14">
-        <v>46.28</v>
-      </c>
-      <c r="K14">
-        <v>40.03</v>
-      </c>
-      <c r="L14">
-        <v>44.96</v>
-      </c>
-      <c r="M14">
-        <v>44.16</v>
-      </c>
-      <c r="N14">
-        <v>45.73</v>
-      </c>
-      <c r="O14">
-        <v>43.1</v>
-      </c>
-      <c r="P14">
-        <v>42.14</v>
-      </c>
-      <c r="Q14">
-        <v>43.72</v>
-      </c>
-      <c r="R14">
-        <v>46.38</v>
-      </c>
-      <c r="S14">
-        <v>37.03</v>
-      </c>
-      <c r="T14">
-        <v>37.76</v>
-      </c>
-      <c r="U14">
-        <v>43.9</v>
-      </c>
-      <c r="V14">
-        <v>38.14</v>
-      </c>
-      <c r="W14">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="X14">
-        <v>42.79</v>
-      </c>
-      <c r="Y14">
-        <v>42.99</v>
-      </c>
-      <c r="Z14">
-        <v>51.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15">
+      <c r="C88" s="11">
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D88" s="11">
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="E88" s="11">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F88" s="11">
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="G88" s="11">
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="H88" s="11">
         <v>0</v>
       </c>
-      <c r="I15">
+      <c r="I88" s="11">
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="J88" s="11">
         <v>0</v>
       </c>
-      <c r="K15">
+      <c r="K88" s="11">
         <v>0</v>
       </c>
-      <c r="L15">
+      <c r="L88" s="11">
         <v>0</v>
       </c>
-      <c r="M15">
+      <c r="M88" s="11">
         <v>0</v>
       </c>
-      <c r="N15">
+      <c r="N88" s="11">
         <v>0</v>
       </c>
-      <c r="O15">
+      <c r="O88" s="11">
         <v>0</v>
       </c>
-      <c r="P15">
+      <c r="P88" s="11">
         <v>0</v>
       </c>
-      <c r="Q15">
+      <c r="Q88" s="11">
         <v>0</v>
       </c>
-      <c r="R15">
+      <c r="R88" s="11">
         <v>0</v>
       </c>
-      <c r="S15">
+      <c r="S88" s="11">
         <v>0</v>
       </c>
-      <c r="T15">
+      <c r="T88" s="11">
         <v>0</v>
       </c>
-      <c r="U15">
+      <c r="U88" s="11">
         <v>0</v>
       </c>
-      <c r="V15">
+      <c r="V88" s="11">
         <v>0</v>
       </c>
-      <c r="W15">
+      <c r="W88" s="11">
         <v>0</v>
       </c>
-      <c r="X15">
+      <c r="X88" s="11">
         <v>0</v>
       </c>
-      <c r="Y15">
+      <c r="Y88" s="11">
         <v>0</v>
       </c>
-      <c r="Z15">
+      <c r="Z88" s="11">
         <v>0</v>
       </c>
     </row>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344CA9DF-F40A-4316-8CAB-12F658DB372D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3235377-1CA9-47AC-B641-960FF4C1D3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3235377-1CA9-47AC-B641-960FF4C1D3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0D2C95-6948-4395-B184-526A5E820F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0D2C95-6948-4395-B184-526A5E820F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93664020-D97B-415D-A114-B1373FB29903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93664020-D97B-415D-A114-B1373FB29903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FEBF5A-9EEB-4808-8FC2-9D262DF0FF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FEBF5A-9EEB-4808-8FC2-9D262DF0FF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878AAC86-73B9-4AB0-BB43-F41359F5BBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878AAC86-73B9-4AB0-BB43-F41359F5BBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AEED80-FD9B-4581-891C-C9B23D61F79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AEED80-FD9B-4581-891C-C9B23D61F79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65269E22-899C-40E9-95E1-A79A7BA4DA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65269E22-899C-40E9-95E1-A79A7BA4DA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0FECFF-ABF6-42D3-BEEE-DFBD6592B340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0FECFF-ABF6-42D3-BEEE-DFBD6592B340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529F4F56-87D3-4FA1-A291-78EC5F0F5491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529F4F56-87D3-4FA1-A291-78EC5F0F5491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E241BD6-B580-49D3-9289-F821048E4B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E241BD6-B580-49D3-9289-F821048E4B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB058BD2-4D5D-4CFB-8A1D-354CE0011D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB058BD2-4D5D-4CFB-8A1D-354CE0011D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD9EABA-ADCD-44F6-B861-CA8FFA347FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD9EABA-ADCD-44F6-B861-CA8FFA347FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D69674-A3BD-4ED8-9E1B-8E35ABD421DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D69674-A3BD-4ED8-9E1B-8E35ABD421DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E87A0A-3CB9-4B2A-8F68-C4D0CC8C9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="12682" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E87A0A-3CB9-4B2A-8F68-C4D0CC8C9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CD36F1-080F-4408-AA6B-4156732DAD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="12682" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="12683" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CD36F1-080F-4408-AA6B-4156732DAD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC46931-A88E-4797-9201-22526F86D150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="12683" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC46931-A88E-4797-9201-22526F86D150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67117F0-93DB-45E2-9C51-82127A1FDAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67117F0-93DB-45E2-9C51-82127A1FDAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874858DF-4FB7-425F-A1B3-81605566A01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874858DF-4FB7-425F-A1B3-81605566A01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEE47B8-EACF-44DF-BBA8-1462074C4F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEE47B8-EACF-44DF-BBA8-1462074C4F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D774C9-2DC2-4692-B735-295BDA2EFD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D774C9-2DC2-4692-B735-295BDA2EFD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF40BFF-DEAE-4641-A456-5DE399386375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7EB58A-AC31-4B70-B8DE-1C7ED31C59CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D18CDE-9E0E-4E2B-B70B-4FFE8E5D7599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D18CDE-9E0E-4E2B-B70B-4FFE8E5D7599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE1C5E9-21EA-41D1-B71E-9692CF089EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE1C5E9-21EA-41D1-B71E-9692CF089EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148984AA-5E9E-4D73-A831-6534BA2B6D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148984AA-5E9E-4D73-A831-6534BA2B6D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922F504F-5383-4CB4-A0C3-6B10F480EBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922F504F-5383-4CB4-A0C3-6B10F480EBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB727E91-1041-4B4A-8BF9-3787CD5AA623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB727E91-1041-4B4A-8BF9-3787CD5AA623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22480F6-BD0B-49DF-983D-DE49CF20AD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CED64BDB-8682-4265-90B1-E14733D6B325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DE9DB6C-2925-4E7A-B8BF-47CAA433F8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -753,25 +753,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>322.95000000000005</c:v>
+                  <c:v>279.96000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>344.28967318510593</c:v>
+                  <c:v>298.45900884007506</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>387.25739351727844</c:v>
+                  <c:v>335.707013126172</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>381.86480042860984</c:v>
+                  <c:v>331.03226359496387</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>377.02011786766684</c:v>
+                  <c:v>326.8324886150549</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>386.96901955531752</c:v>
+                  <c:v>335.45702652022504</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>415.17199303509244</c:v>
+                  <c:v>359.90571658183768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2783,7 +2783,7 @@
   <dimension ref="B2:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2852,8 +2852,8 @@
         <v>3</v>
       </c>
       <c r="Q10" s="3">
-        <f>SUMIFS(historical_data_long!$D$3:$D$9999,historical_data_long!$B$3:$B$9999,Veda!Q9,historical_data_long!$C$3:$C$9999,"TWh")</f>
-        <v>322.95000000000005</v>
+        <f>SUMIFS(historical_data_long!$D$3:$D$9999,historical_data_long!$B$3:$B$9999,Veda!Q9,historical_data_long!$C$3:$C$9999,"TWh")-R25+R26</f>
+        <v>279.96000000000004</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>16</v>
@@ -2876,31 +2876,31 @@
       </c>
       <c r="R12" s="8">
         <f>SUM(R16:R19)</f>
-        <v>322.95000000000005</v>
+        <v>279.96000000000004</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" ref="S12:X12" si="0">SUM(S16:S19)</f>
-        <v>344.28967318510593</v>
+        <v>298.45900884007506</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="0"/>
-        <v>387.25739351727844</v>
+        <v>335.707013126172</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="0"/>
-        <v>381.86480042860984</v>
+        <v>331.03226359496387</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="0"/>
-        <v>377.02011786766684</v>
+        <v>326.8324886150549</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="0"/>
-        <v>386.96901955531752</v>
+        <v>335.45702652022504</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="0"/>
-        <v>415.17199303509244</v>
+        <v>359.90571658183768</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.45">
@@ -3006,31 +3006,31 @@
       </c>
       <c r="R16" s="6">
         <f>$Q$10*G16/SUM($G$16:$G$18)</f>
-        <v>18.282909188320392</v>
+        <v>15.849150817037239</v>
       </c>
       <c r="S16" s="6">
         <f>R16</f>
-        <v>18.282909188320392</v>
+        <v>15.849150817037239</v>
       </c>
       <c r="T16" s="6">
         <f t="shared" ref="T16:X16" si="2">S16</f>
-        <v>18.282909188320392</v>
+        <v>15.849150817037239</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="2"/>
-        <v>18.282909188320392</v>
+        <v>15.849150817037239</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" si="2"/>
-        <v>18.282909188320392</v>
+        <v>15.849150817037239</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="2"/>
-        <v>18.282909188320392</v>
+        <v>15.849150817037239</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" si="2"/>
-        <v>18.282909188320392</v>
+        <v>15.849150817037239</v>
       </c>
       <c r="Y16" t="s">
         <v>11</v>
@@ -3073,31 +3073,31 @@
       </c>
       <c r="R17" s="6">
         <f>$Q$10*G17/SUM($G$16:$G$18)</f>
-        <v>196.6133672649344</v>
+        <v>170.44086793463705</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" ref="S17:X18" si="3">R17*H17/G17</f>
-        <v>232.51592552906516</v>
+        <v>201.56420037503352</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" si="3"/>
-        <v>275.1952718992768</v>
+        <v>238.56221805518354</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="3"/>
-        <v>283.93300294669177</v>
+        <v>246.13681221537641</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="3"/>
-        <v>291.37305116528267</v>
+        <v>252.58646664880794</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="3"/>
-        <v>302.56196088936514</v>
+        <v>262.28594695954996</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="3"/>
-        <v>322.31557728368603</v>
+        <v>279.41002946691668</v>
       </c>
       <c r="Y17" t="s">
         <v>11</v>
@@ -3137,31 +3137,31 @@
       </c>
       <c r="R18" s="6">
         <f>$Q$10*G18/SUM($G$16:$G$18)</f>
-        <v>108.05372354674527</v>
+        <v>93.669981248325755</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="3"/>
-        <v>98.104821859094599</v>
+        <v>85.045443343155654</v>
       </c>
       <c r="T18" s="6">
         <f t="shared" si="3"/>
-        <v>91.760594695955021</v>
+        <v>79.545738012322531</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="3"/>
-        <v>83.887985534422739</v>
+        <v>72.721103669970532</v>
       </c>
       <c r="V18" s="6">
         <f t="shared" si="3"/>
-        <v>76.851660862577049</v>
+        <v>66.621430484864732</v>
       </c>
       <c r="W18" s="6">
         <f t="shared" si="3"/>
-        <v>73.881409054379873</v>
+        <v>64.046568443611051</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" si="3"/>
-        <v>74.169783016340759</v>
+        <v>64.296555049558009</v>
       </c>
       <c r="Y18" t="s">
         <v>11</v>
@@ -3180,27 +3180,27 @@
       </c>
       <c r="S19" s="6">
         <f t="shared" ref="S19:X19" si="4">$Q$10*H16/SUM($G$16:$G$18)-S16</f>
-        <v>-4.6139833913742336</v>
+        <v>-3.9997856951513544</v>
       </c>
       <c r="T19" s="6">
         <f t="shared" si="4"/>
-        <v>2.0186177337262272</v>
+        <v>1.7499062416287163</v>
       </c>
       <c r="U19" s="6">
         <f t="shared" si="4"/>
-        <v>-4.2390972408250764</v>
+        <v>-3.6748031074203062</v>
       </c>
       <c r="V19" s="6">
         <f t="shared" si="4"/>
-        <v>-9.4875033485132647</v>
+        <v>-8.2245593356549715</v>
       </c>
       <c r="W19" s="6">
         <f t="shared" si="4"/>
-        <v>-7.7572595767479289</v>
+        <v>-6.7246396999732152</v>
       </c>
       <c r="X19" s="6">
         <f t="shared" si="4"/>
-        <v>0.40372354674524047</v>
+        <v>0.34998124832574184</v>
       </c>
       <c r="Y19" t="s">
         <v>11</v>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DE9DB6C-2925-4E7A-B8BF-47CAA433F8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{073CE0A6-1300-4D2B-9143-6CB480421F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,20 +378,20 @@
     </font>
     <font>
       <i/>
-      <sz val="9"/>
+      <sz val="7"/>
       <color rgb="FF969696"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -3427,7 +3427,7 @@
     <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="13"/>
     </row>
-    <row r="2" spans="1:4" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="14" t="s">
         <v>55</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
         <v>34</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>26.28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>36</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>101.36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>56</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
         <v>57</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>91.43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>32</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
         <v>58</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
         <v>32</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>34</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="17" t="s">
         <v>36</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>104.19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>56</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>46.81</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="17" t="s">
         <v>57</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
         <v>38</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>81.63</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="17" t="s">
         <v>32</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
         <v>58</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="17" t="s">
         <v>59</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
         <v>32</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="17" t="s">
         <v>34</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>35.450000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
         <v>36</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>99.41</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="17" t="s">
         <v>56</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>39.520000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="15" t="s">
         <v>57</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="17" t="s">
         <v>38</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>94.36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="15" t="s">
         <v>32</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="17" t="s">
         <v>58</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
         <v>59</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="17" t="s">
         <v>32</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="15" t="s">
         <v>34</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>38.81</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="17" t="s">
         <v>36</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>117.3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
         <v>56</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="17" t="s">
         <v>57</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="15" t="s">
         <v>38</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="17" t="s">
         <v>32</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="15" t="s">
         <v>58</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="17" t="s">
         <v>59</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="15" t="s">
         <v>32</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="17" t="s">
         <v>34</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>45.52</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="15" t="s">
         <v>36</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>129.84</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="17" t="s">
         <v>56</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>42.34</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
         <v>57</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="17" t="s">
         <v>38</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>64.48</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="15" t="s">
         <v>32</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>5.44</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="17" t="s">
         <v>58</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="15" t="s">
         <v>59</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="17" t="s">
         <v>32</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="15" t="s">
         <v>34</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>43.61</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="17" t="s">
         <v>36</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>149.33000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="15" t="s">
         <v>56</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>36.07</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="17" t="s">
         <v>57</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="15" t="s">
         <v>38</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>53.26</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="17" t="s">
         <v>32</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>5.32</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="15" t="s">
         <v>58</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="17" t="s">
         <v>59</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="15" t="s">
         <v>32</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="17" t="s">
         <v>34</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>44.21</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="15" t="s">
         <v>36</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>158.13999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="17" t="s">
         <v>56</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>36.99</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="15" t="s">
         <v>57</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="17" t="s">
         <v>38</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>52.62</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="15" t="s">
         <v>32</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="17" t="s">
         <v>58</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="15" t="s">
         <v>59</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="17" t="s">
         <v>32</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="15" t="s">
         <v>34</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>44.11</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="17" t="s">
         <v>36</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>172.71</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="15" t="s">
         <v>56</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>32.82</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="17" t="s">
         <v>57</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="15" t="s">
         <v>38</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>41.63</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="17" t="s">
         <v>32</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="15" t="s">
         <v>58</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="17" t="s">
         <v>59</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="15" t="s">
         <v>32</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="17" t="s">
         <v>34</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>43.07</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="15" t="s">
         <v>36</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>172.77</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="17" t="s">
         <v>56</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>41.62</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="15" t="s">
         <v>57</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="17" t="s">
         <v>38</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>37.57</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="15" t="s">
         <v>32</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="17" t="s">
         <v>58</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="15" t="s">
         <v>59</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="17" t="s">
         <v>32</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="15" t="s">
         <v>34</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>39.74</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="17" t="s">
         <v>36</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>147.36000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="15" t="s">
         <v>56</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>49.14</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="17" t="s">
         <v>57</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="15" t="s">
         <v>38</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="17" t="s">
         <v>32</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="15" t="s">
         <v>58</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="17" t="s">
         <v>59</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="15" t="s">
         <v>32</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>9.44</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="17" t="s">
         <v>34</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>39.729999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="15" t="s">
         <v>36</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>152.81</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="17" t="s">
         <v>56</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>51.12</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="15" t="s">
         <v>57</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="17" t="s">
         <v>38</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>27.12</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="15" t="s">
         <v>32</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="17" t="s">
         <v>58</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="15" t="s">
         <v>59</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="17" t="s">
         <v>32</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>10.83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="15" t="s">
         <v>34</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>44.73</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="17" t="s">
         <v>36</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>144.6</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="15" t="s">
         <v>56</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>45.82</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="17" t="s">
         <v>57</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="15" t="s">
         <v>38</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="17" t="s">
         <v>32</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="15" t="s">
         <v>58</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="17" t="s">
         <v>59</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>9.85</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="15" t="s">
         <v>32</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>12.49</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="17" t="s">
         <v>34</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>49.14</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="15" t="s">
         <v>36</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>129.13999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="17" t="s">
         <v>56</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>41.87</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="15" t="s">
         <v>57</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="17" t="s">
         <v>38</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="15" t="s">
         <v>32</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="17" t="s">
         <v>58</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>18.86</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="15" t="s">
         <v>59</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>13.41</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="17" t="s">
         <v>32</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>17.079999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="15" t="s">
         <v>34</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="17" t="s">
         <v>36</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>108.91</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="15" t="s">
         <v>56</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>52.77</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="17" t="s">
         <v>57</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="15" t="s">
         <v>38</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>20.010000000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="17" t="s">
         <v>32</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="15" t="s">
         <v>58</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>21.59</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="17" t="s">
         <v>59</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="15" t="s">
         <v>32</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>18.72</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="17" t="s">
         <v>34</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>43.45</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="15" t="s">
         <v>36</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>93.66</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="17" t="s">
         <v>56</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>58.55</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="15" t="s">
         <v>57</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="17" t="s">
         <v>38</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>18.739999999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="15" t="s">
         <v>32</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="17" t="s">
         <v>58</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>22.31</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="15" t="s">
         <v>59</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>15.18</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="17" t="s">
         <v>32</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>19.39</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="15" t="s">
         <v>34</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="17" t="s">
         <v>36</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>110.88</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="15" t="s">
         <v>56</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>45.54</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="17" t="s">
         <v>57</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="15" t="s">
         <v>38</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>16.73</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="17" t="s">
         <v>32</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="15" t="s">
         <v>58</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>22.94</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="17" t="s">
         <v>59</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="15" t="s">
         <v>32</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="17" t="s">
         <v>34</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>35.61</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="15" t="s">
         <v>36</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>126.17</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="17" t="s">
         <v>56</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>42.43</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="15" t="s">
         <v>57</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="17" t="s">
         <v>38</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="15" t="s">
         <v>32</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>6.29</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="17" t="s">
         <v>58</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="15" t="s">
         <v>59</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>17.690000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="17" t="s">
         <v>32</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>19.37</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="15" t="s">
         <v>34</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>32.630000000000003</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="17" t="s">
         <v>36</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>140.36000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="15" t="s">
         <v>56</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="17" t="s">
         <v>57</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="15" t="s">
         <v>38</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>15.21</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="17" t="s">
         <v>32</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="15" t="s">
         <v>58</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>24.38</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="17" t="s">
         <v>59</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>17.739999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="15" t="s">
         <v>32</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>19.14</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="17" t="s">
         <v>34</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>28.47</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="15" t="s">
         <v>36</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>128.56</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="17" t="s">
         <v>56</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>48.79</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="15" t="s">
         <v>57</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="17" t="s">
         <v>38</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>14.62</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="15" t="s">
         <v>32</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="17" t="s">
         <v>58</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>22.65</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="15" t="s">
         <v>59</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="17" t="s">
         <v>32</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="15" t="s">
         <v>34</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="17" t="s">
         <v>36</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>141.69999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="15" t="s">
         <v>56</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>46.32</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="17" t="s">
         <v>57</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="15" t="s">
         <v>38</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>13.62</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="17" t="s">
         <v>32</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="15" t="s">
         <v>58</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>23.69</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="17" t="s">
         <v>59</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="15" t="s">
         <v>32</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="17" t="s">
         <v>34</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>13.38</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="15" t="s">
         <v>36</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>133.69999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="17" t="s">
         <v>56</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>47.55</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="15" t="s">
         <v>57</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="17" t="s">
         <v>38</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>12.83</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="15" t="s">
         <v>32</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>6.03</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="17" t="s">
         <v>58</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>24.94</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="15" t="s">
         <v>59</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>18.760000000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="17" t="s">
         <v>32</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>19.059999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="15" t="s">
         <v>34</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>14.02</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="17" t="s">
         <v>36</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>144.01</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="15" t="s">
         <v>56</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>45.39</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="17" t="s">
         <v>57</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="15" t="s">
         <v>38</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>11.13</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="17" t="s">
         <v>32</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="15" t="s">
         <v>58</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>25.04</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="17" t="s">
         <v>59</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>20.93</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="15" t="s">
         <v>32</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>17.61</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="17" t="s">
         <v>34</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>22.61</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="15" t="s">
         <v>36</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>141.47</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="17" t="s">
         <v>56</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="15" t="s">
         <v>57</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="17" t="s">
         <v>38</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>15.63</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="15" t="s">
         <v>32</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="17" t="s">
         <v>58</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="15" t="s">
         <v>59</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>20.28</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="17" t="s">
         <v>32</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>16.61</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="15" t="s">
         <v>34</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="17" t="s">
         <v>36</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>118.34</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="15" t="s">
         <v>56</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>37.94</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="17" t="s">
         <v>57</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="15" t="s">
         <v>38</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>15.54</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="17" t="s">
         <v>32</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>5.73</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="15" t="s">
         <v>58</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>31.01</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="17" t="s">
         <v>59</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>23.51</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="15" t="s">
         <v>32</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="17" t="s">
         <v>34</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="15" t="s">
         <v>36</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="17" t="s">
         <v>56</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>16.39</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="15" t="s">
         <v>57</v>
       </c>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="D223" s="16"/>
     </row>
-    <row r="224" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="17" t="s">
         <v>38</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="15" t="s">
         <v>32</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="17" t="s">
         <v>58</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="15" t="s">
         <v>59</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="17" t="s">
         <v>32</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="15" t="s">
         <v>34</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="17" t="s">
         <v>36</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>53.57</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="15" t="s">
         <v>56</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>16.46</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="17" t="s">
         <v>57</v>
       </c>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="D232" s="18"/>
     </row>
-    <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="15" t="s">
         <v>38</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="17" t="s">
         <v>32</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="15" t="s">
         <v>58</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="17" t="s">
         <v>59</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="15" t="s">
         <v>32</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="17" t="s">
         <v>34</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="15" t="s">
         <v>36</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>53.54</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="17" t="s">
         <v>56</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>16.559999999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="15" t="s">
         <v>57</v>
       </c>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="D241" s="16"/>
     </row>
-    <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="17" t="s">
         <v>38</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="15" t="s">
         <v>32</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="17" t="s">
         <v>58</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="15" t="s">
         <v>59</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="17" t="s">
         <v>32</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="15" t="s">
         <v>34</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="17" t="s">
         <v>36</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>54.78</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="15" t="s">
         <v>56</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="17" t="s">
         <v>57</v>
       </c>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="D250" s="18"/>
     </row>
-    <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="15" t="s">
         <v>38</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="17" t="s">
         <v>32</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" s="15" t="s">
         <v>58</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="17" t="s">
         <v>59</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="15" t="s">
         <v>32</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="17" t="s">
         <v>34</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="15" t="s">
         <v>36</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>57.62</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="17" t="s">
         <v>56</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>16.79</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="15" t="s">
         <v>57</v>
       </c>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="D259" s="16"/>
     </row>
-    <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="17" t="s">
         <v>38</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="15" t="s">
         <v>32</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="17" t="s">
         <v>58</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="15" t="s">
         <v>59</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="17" t="s">
         <v>32</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="15" t="s">
         <v>34</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="17" t="s">
         <v>36</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>60.79</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="15" t="s">
         <v>56</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>17.04</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="17" t="s">
         <v>57</v>
       </c>
@@ -7153,7 +7153,7 @@
       </c>
       <c r="D268" s="18"/>
     </row>
-    <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="15" t="s">
         <v>38</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="17" t="s">
         <v>32</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="15" t="s">
         <v>58</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="17" t="s">
         <v>59</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="15" t="s">
         <v>32</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="17" t="s">
         <v>34</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="15" t="s">
         <v>36</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>64.31</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="17" t="s">
         <v>56</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>17.11</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="15" t="s">
         <v>57</v>
       </c>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D277" s="16"/>
     </row>
-    <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="17" t="s">
         <v>38</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="15" t="s">
         <v>32</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="17" t="s">
         <v>58</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="15" t="s">
         <v>59</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="17" t="s">
         <v>32</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="15" t="s">
         <v>34</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="17" t="s">
         <v>36</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>67.459999999999994</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="15" t="s">
         <v>56</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>17.16</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="17" t="s">
         <v>57</v>
       </c>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="D286" s="18"/>
     </row>
-    <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="15" t="s">
         <v>38</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="17" t="s">
         <v>32</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="15" t="s">
         <v>58</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="17" t="s">
         <v>59</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="15" t="s">
         <v>32</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="17" t="s">
         <v>34</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>8.06</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="15" t="s">
         <v>36</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>70.95</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="17" t="s">
         <v>56</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="15" t="s">
         <v>57</v>
       </c>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="D295" s="16"/>
     </row>
-    <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="17" t="s">
         <v>38</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="15" t="s">
         <v>32</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="17" t="s">
         <v>58</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="15" t="s">
         <v>59</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="17" t="s">
         <v>32</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="15" t="s">
         <v>34</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>8.7200000000000006</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="17" t="s">
         <v>36</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>71.14</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="15" t="s">
         <v>56</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>17.41</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="17" t="s">
         <v>57</v>
       </c>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="D304" s="18"/>
     </row>
-    <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" s="15" t="s">
         <v>38</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" s="17" t="s">
         <v>32</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" s="15" t="s">
         <v>58</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" s="17" t="s">
         <v>59</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" s="15" t="s">
         <v>32</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" s="17" t="s">
         <v>34</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" s="15" t="s">
         <v>36</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>72.459999999999994</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" s="17" t="s">
         <v>56</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>17.559999999999999</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" s="15" t="s">
         <v>57</v>
       </c>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="D313" s="16"/>
     </row>
-    <row r="314" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" s="17" t="s">
         <v>38</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" s="15" t="s">
         <v>32</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" s="17" t="s">
         <v>58</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" s="15" t="s">
         <v>59</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" s="17" t="s">
         <v>32</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" s="15" t="s">
         <v>34</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" s="17" t="s">
         <v>36</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>73.33</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="15" t="s">
         <v>56</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>17.78</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="17" t="s">
         <v>57</v>
       </c>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="D322" s="18"/>
     </row>
-    <row r="323" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="15" t="s">
         <v>38</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="17" t="s">
         <v>32</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="15" t="s">
         <v>58</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>13.14</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="17" t="s">
         <v>59</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="15" t="s">
         <v>32</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="17" t="s">
         <v>34</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="15" t="s">
         <v>36</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>73.22</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="17" t="s">
         <v>56</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>17.920000000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="15" t="s">
         <v>57</v>
       </c>
@@ -8021,7 +8021,7 @@
       </c>
       <c r="D331" s="16"/>
     </row>
-    <row r="332" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="17" t="s">
         <v>38</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="15" t="s">
         <v>32</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" s="17" t="s">
         <v>58</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>16.79</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="15" t="s">
         <v>59</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="17" t="s">
         <v>32</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="15" t="s">
         <v>34</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="17" t="s">
         <v>36</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>70.95</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="15" t="s">
         <v>56</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>18.05</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" s="17" t="s">
         <v>57</v>
       </c>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="D340" s="18"/>
     </row>
-    <row r="341" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="15" t="s">
         <v>38</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="17" t="s">
         <v>32</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="15" t="s">
         <v>58</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>18.190000000000001</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="17" t="s">
         <v>59</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="15" t="s">
         <v>32</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="17" t="s">
         <v>34</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>9.83</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="15" t="s">
         <v>36</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>67.48</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" s="17" t="s">
         <v>56</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>18.12</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="15" t="s">
         <v>57</v>
       </c>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="D349" s="16"/>
     </row>
-    <row r="350" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="17" t="s">
         <v>38</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="15" t="s">
         <v>32</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" s="17" t="s">
         <v>58</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="15" t="s">
         <v>59</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>8.68</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="17" t="s">
         <v>32</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="15" t="s">
         <v>34</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>9.69</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" s="17" t="s">
         <v>36</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>61.81</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" s="15" t="s">
         <v>56</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>18.239999999999998</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" s="17" t="s">
         <v>57</v>
       </c>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="D358" s="18"/>
     </row>
-    <row r="359" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" s="15" t="s">
         <v>38</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="17" t="s">
         <v>32</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" s="15" t="s">
         <v>58</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>18.91</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="17" t="s">
         <v>59</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>9.14</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="15" t="s">
         <v>32</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" s="17" t="s">
         <v>34</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>8.7100000000000009</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" s="15" t="s">
         <v>36</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>58.22</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" s="17" t="s">
         <v>56</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>18.32</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A367" s="15" t="s">
         <v>57</v>
       </c>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="D367" s="16"/>
     </row>
-    <row r="368" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A368" s="17" t="s">
         <v>38</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" s="15" t="s">
         <v>32</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" s="17" t="s">
         <v>58</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>19.29</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" s="15" t="s">
         <v>59</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>9.3800000000000008</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" s="17" t="s">
         <v>32</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" s="15" t="s">
         <v>34</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374" s="17" t="s">
         <v>36</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" s="15" t="s">
         <v>56</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>18.489999999999998</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" s="17" t="s">
         <v>57</v>
       </c>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="D376" s="18"/>
     </row>
-    <row r="377" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" s="15" t="s">
         <v>38</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" s="17" t="s">
         <v>32</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" s="15" t="s">
         <v>58</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" s="17" t="s">
         <v>59</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>9.74</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" s="15" t="s">
         <v>32</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382" s="17" t="s">
         <v>34</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383" s="15" t="s">
         <v>36</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>57.35</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384" s="17" t="s">
         <v>56</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>18.559999999999999</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A385" s="15" t="s">
         <v>57</v>
       </c>
@@ -8765,7 +8765,7 @@
       </c>
       <c r="D385" s="16"/>
     </row>
-    <row r="386" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A386" s="17" t="s">
         <v>38</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" s="15" t="s">
         <v>32</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" s="17" t="s">
         <v>58</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>20.11</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" s="15" t="s">
         <v>59</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A390" s="17" t="s">
         <v>32</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A391" s="15" t="s">
         <v>34</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A392" s="17" t="s">
         <v>36</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>57.41</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A393" s="15" t="s">
         <v>56</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A394" s="17" t="s">
         <v>57</v>
       </c>
@@ -8889,7 +8889,7 @@
       </c>
       <c r="D394" s="18"/>
     </row>
-    <row r="395" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A395" s="15" t="s">
         <v>38</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A396" s="17" t="s">
         <v>32</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A397" s="15" t="s">
         <v>58</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>20.87</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398" s="17" t="s">
         <v>59</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A399" s="15" t="s">
         <v>32</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A400" s="17" t="s">
         <v>34</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401" s="15" t="s">
         <v>36</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>56.24</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402" s="17" t="s">
         <v>56</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403" s="15" t="s">
         <v>57</v>
       </c>
@@ -9013,7 +9013,7 @@
       </c>
       <c r="D403" s="16"/>
     </row>
-    <row r="404" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A404" s="17" t="s">
         <v>38</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405" s="15" t="s">
         <v>32</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" s="17" t="s">
         <v>58</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" s="15" t="s">
         <v>59</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>10.87</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" s="17" t="s">
         <v>32</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A409" s="15" t="s">
         <v>34</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>6.81</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410" s="17" t="s">
         <v>36</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>55.63</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411" s="15" t="s">
         <v>56</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>18.809999999999999</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412" s="17" t="s">
         <v>57</v>
       </c>
@@ -9137,7 +9137,7 @@
       </c>
       <c r="D412" s="18"/>
     </row>
-    <row r="413" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A413" s="15" t="s">
         <v>38</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" s="17" t="s">
         <v>32</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" s="15" t="s">
         <v>58</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" s="17" t="s">
         <v>59</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A417" s="15" t="s">
         <v>32</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A418" s="17" t="s">
         <v>34</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>6.81</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A419" s="15" t="s">
         <v>36</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>56.32</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A420" s="17" t="s">
         <v>56</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>18.93</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A421" s="15" t="s">
         <v>57</v>
       </c>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="D421" s="16"/>
     </row>
-    <row r="422" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A422" s="17" t="s">
         <v>38</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A423" s="15" t="s">
         <v>32</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424" s="17" t="s">
         <v>58</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>24.56</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425" s="15" t="s">
         <v>59</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>11.82</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A426" s="17" t="s">
         <v>32</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A427" s="15" t="s">
         <v>34</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A428" s="17" t="s">
         <v>36</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>57.28</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A429" s="15" t="s">
         <v>56</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>18.850000000000001</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A430" s="17" t="s">
         <v>57</v>
       </c>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="D430" s="18"/>
     </row>
-    <row r="431" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A431" s="15" t="s">
         <v>38</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A432" s="17" t="s">
         <v>32</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" s="15" t="s">
         <v>58</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" s="17" t="s">
         <v>59</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>12.31</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435" s="15" t="s">
         <v>32</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A436" s="17" t="s">
         <v>34</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>24.64</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A437" s="15" t="s">
         <v>36</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>49.08</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A438" s="17" t="s">
         <v>56</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A439" s="15" t="s">
         <v>57</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A440" s="17" t="s">
         <v>38</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>60.16</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A441" s="15" t="s">
         <v>32</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A442" s="17" t="s">
         <v>58</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A443" s="15" t="s">
         <v>59</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A444" s="17" t="s">
         <v>32</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A445" s="15" t="s">
         <v>34</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>29.74</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A446" s="17" t="s">
         <v>36</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>50.45</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A447" s="15" t="s">
         <v>56</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A448" s="17" t="s">
         <v>57</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A449" s="15" t="s">
         <v>38</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>53.71</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A450" s="17" t="s">
         <v>32</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A451" s="15" t="s">
         <v>58</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A452" s="17" t="s">
         <v>59</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A453" s="15" t="s">
         <v>32</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A454" s="17" t="s">
         <v>34</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>33.22</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A455" s="15" t="s">
         <v>36</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>48.13</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A456" s="17" t="s">
         <v>56</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A457" s="15" t="s">
         <v>57</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A458" s="17" t="s">
         <v>38</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>62.09</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A459" s="15" t="s">
         <v>32</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A460" s="17" t="s">
         <v>58</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A461" s="15" t="s">
         <v>59</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A462" s="17" t="s">
         <v>32</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A463" s="15" t="s">
         <v>34</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>36.369999999999997</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A464" s="17" t="s">
         <v>36</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>56.79</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A465" s="15" t="s">
         <v>56</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A466" s="17" t="s">
         <v>57</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A467" s="15" t="s">
         <v>38</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A468" s="17" t="s">
         <v>32</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A469" s="15" t="s">
         <v>58</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A470" s="17" t="s">
         <v>59</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A471" s="15" t="s">
         <v>32</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A472" s="17" t="s">
         <v>34</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>42.65</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A473" s="15" t="s">
         <v>36</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>62.86</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A474" s="17" t="s">
         <v>56</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A475" s="15" t="s">
         <v>57</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A476" s="17" t="s">
         <v>38</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>42.43</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A477" s="15" t="s">
         <v>32</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A478" s="17" t="s">
         <v>58</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A479" s="15" t="s">
         <v>59</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A480" s="17" t="s">
         <v>32</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A481" s="15" t="s">
         <v>34</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>40.86</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A482" s="17" t="s">
         <v>36</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>72.3</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A483" s="15" t="s">
         <v>56</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A484" s="17" t="s">
         <v>57</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A485" s="15" t="s">
         <v>38</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>35.049999999999997</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A486" s="17" t="s">
         <v>32</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A487" s="15" t="s">
         <v>58</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A488" s="17" t="s">
         <v>59</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A489" s="15" t="s">
         <v>32</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A490" s="17" t="s">
         <v>34</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>41.45</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A491" s="15" t="s">
         <v>36</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>76.569999999999993</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A492" s="17" t="s">
         <v>56</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A493" s="15" t="s">
         <v>57</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A494" s="17" t="s">
         <v>38</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>34.619999999999997</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A495" s="15" t="s">
         <v>32</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A496" s="17" t="s">
         <v>58</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A497" s="15" t="s">
         <v>59</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A498" s="17" t="s">
         <v>32</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A499" s="15" t="s">
         <v>34</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>41.35</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A500" s="17" t="s">
         <v>36</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>83.62</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A501" s="15" t="s">
         <v>56</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A502" s="17" t="s">
         <v>57</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A503" s="15" t="s">
         <v>38</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>27.39</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A504" s="17" t="s">
         <v>32</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A505" s="15" t="s">
         <v>58</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A506" s="17" t="s">
         <v>59</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A507" s="15" t="s">
         <v>32</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A508" s="17" t="s">
         <v>34</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>40.340000000000003</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A509" s="15" t="s">
         <v>36</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>83.65</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A510" s="17" t="s">
         <v>56</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A511" s="15" t="s">
         <v>57</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A512" s="17" t="s">
         <v>38</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A513" s="15" t="s">
         <v>32</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A514" s="17" t="s">
         <v>58</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A515" s="15" t="s">
         <v>59</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A516" s="17" t="s">
         <v>32</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A517" s="15" t="s">
         <v>34</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>37.119999999999997</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A518" s="17" t="s">
         <v>36</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>71.349999999999994</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A519" s="15" t="s">
         <v>56</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A520" s="17" t="s">
         <v>57</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A521" s="15" t="s">
         <v>38</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>19.739999999999998</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A522" s="17" t="s">
         <v>32</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A523" s="15" t="s">
         <v>58</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A524" s="17" t="s">
         <v>59</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A525" s="15" t="s">
         <v>32</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A526" s="17" t="s">
         <v>34</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>36.94</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A527" s="15" t="s">
         <v>36</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>73.989999999999995</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A528" s="17" t="s">
         <v>56</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A529" s="15" t="s">
         <v>57</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A530" s="17" t="s">
         <v>38</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>17.84</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A531" s="15" t="s">
         <v>32</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A532" s="17" t="s">
         <v>58</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A533" s="15" t="s">
         <v>59</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A534" s="17" t="s">
         <v>32</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A535" s="15" t="s">
         <v>34</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>41.48</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A536" s="17" t="s">
         <v>36</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>70.010000000000005</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A537" s="15" t="s">
         <v>56</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A538" s="17" t="s">
         <v>57</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A539" s="15" t="s">
         <v>38</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>17.170000000000002</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A540" s="17" t="s">
         <v>32</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A541" s="15" t="s">
         <v>58</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A542" s="17" t="s">
         <v>59</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A543" s="15" t="s">
         <v>32</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A544" s="17" t="s">
         <v>34</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>45.57</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A545" s="15" t="s">
         <v>36</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>62.53</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A546" s="17" t="s">
         <v>56</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A547" s="15" t="s">
         <v>57</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A548" s="17" t="s">
         <v>38</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>16.29</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A549" s="15" t="s">
         <v>32</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A550" s="17" t="s">
         <v>58</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A551" s="15" t="s">
         <v>59</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A552" s="17" t="s">
         <v>32</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A553" s="15" t="s">
         <v>34</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>41.82</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A554" s="17" t="s">
         <v>36</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>52.73</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A555" s="15" t="s">
         <v>56</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A556" s="17" t="s">
         <v>57</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A557" s="15" t="s">
         <v>38</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A558" s="17" t="s">
         <v>32</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A559" s="15" t="s">
         <v>58</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A560" s="17" t="s">
         <v>59</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A561" s="15" t="s">
         <v>32</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A562" s="17" t="s">
         <v>34</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>40.28</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A563" s="15" t="s">
         <v>36</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>45.35</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A564" s="17" t="s">
         <v>56</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A565" s="15" t="s">
         <v>57</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A566" s="17" t="s">
         <v>38</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A567" s="15" t="s">
         <v>32</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A568" s="17" t="s">
         <v>58</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A569" s="15" t="s">
         <v>59</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A570" s="17" t="s">
         <v>32</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A571" s="15" t="s">
         <v>34</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>40.03</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A572" s="17" t="s">
         <v>36</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>53.68</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A573" s="15" t="s">
         <v>56</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A574" s="17" t="s">
         <v>57</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A575" s="15" t="s">
         <v>38</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A576" s="17" t="s">
         <v>32</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A577" s="15" t="s">
         <v>58</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A578" s="17" t="s">
         <v>59</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A579" s="15" t="s">
         <v>32</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A580" s="17" t="s">
         <v>34</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>32.92</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A581" s="15" t="s">
         <v>36</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>61.09</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A582" s="17" t="s">
         <v>56</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A583" s="15" t="s">
         <v>57</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A584" s="17" t="s">
         <v>38</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>10.63</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A585" s="15" t="s">
         <v>32</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A586" s="17" t="s">
         <v>58</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A587" s="15" t="s">
         <v>59</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A588" s="17" t="s">
         <v>32</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A589" s="15" t="s">
         <v>34</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>30.09</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A590" s="17" t="s">
         <v>36</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>67.959999999999994</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A591" s="15" t="s">
         <v>56</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A592" s="17" t="s">
         <v>57</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A593" s="15" t="s">
         <v>38</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>10.01</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A594" s="17" t="s">
         <v>32</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A595" s="15" t="s">
         <v>58</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A596" s="17" t="s">
         <v>59</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A597" s="15" t="s">
         <v>32</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A598" s="17" t="s">
         <v>34</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>26.24</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A599" s="15" t="s">
         <v>36</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>62.24</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A600" s="17" t="s">
         <v>56</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A601" s="15" t="s">
         <v>57</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A602" s="17" t="s">
         <v>38</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>9.6199999999999992</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A603" s="15" t="s">
         <v>32</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A604" s="17" t="s">
         <v>58</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A605" s="15" t="s">
         <v>59</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A606" s="17" t="s">
         <v>32</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A607" s="15" t="s">
         <v>34</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>17.36</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A608" s="17" t="s">
         <v>36</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>68.61</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A609" s="15" t="s">
         <v>56</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A610" s="17" t="s">
         <v>57</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A611" s="15" t="s">
         <v>38</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A612" s="17" t="s">
         <v>32</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A613" s="15" t="s">
         <v>58</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A614" s="17" t="s">
         <v>59</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A615" s="15" t="s">
         <v>32</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A616" s="17" t="s">
         <v>34</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>12.34</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A617" s="15" t="s">
         <v>36</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>64.73</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A618" s="17" t="s">
         <v>56</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A619" s="15" t="s">
         <v>57</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A620" s="17" t="s">
         <v>38</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A621" s="15" t="s">
         <v>32</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A622" s="17" t="s">
         <v>58</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A623" s="15" t="s">
         <v>59</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A624" s="17" t="s">
         <v>32</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A625" s="15" t="s">
         <v>34</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>12.94</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A626" s="17" t="s">
         <v>36</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>69.73</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A627" s="15" t="s">
         <v>56</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A628" s="17" t="s">
         <v>57</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A629" s="15" t="s">
         <v>38</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A630" s="17" t="s">
         <v>32</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A631" s="15" t="s">
         <v>58</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A632" s="17" t="s">
         <v>59</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A633" s="15" t="s">
         <v>32</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A634" s="17" t="s">
         <v>34</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>20.88</v>
       </c>
     </row>
-    <row r="635" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A635" s="15" t="s">
         <v>36</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="636" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A636" s="17" t="s">
         <v>56</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A637" s="15" t="s">
         <v>57</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A638" s="17" t="s">
         <v>38</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>10.28</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A639" s="15" t="s">
         <v>32</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A640" s="17" t="s">
         <v>58</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A641" s="15" t="s">
         <v>59</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="642" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A642" s="17" t="s">
         <v>32</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A643" s="15" t="s">
         <v>34</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>12.84</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A644" s="17" t="s">
         <v>36</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A645" s="15" t="s">
         <v>56</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A646" s="17" t="s">
         <v>57</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A647" s="15" t="s">
         <v>38</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A648" s="17" t="s">
         <v>32</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="649" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A649" s="15" t="s">
         <v>58</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="650" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A650" s="17" t="s">
         <v>59</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="651" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A651" s="15" t="s">
         <v>61</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>44.35</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A652" s="17" t="s">
         <v>60</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A653" s="15" t="s">
         <v>61</v>
       </c>
@@ -12507,7 +12507,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A654" s="17" t="s">
         <v>60</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A655" s="15" t="s">
         <v>61</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A656" s="17" t="s">
         <v>60</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A657" s="15" t="s">
         <v>61</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>50.97</v>
       </c>
     </row>
-    <row r="658" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A658" s="17" t="s">
         <v>60</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A659" s="15" t="s">
         <v>61</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>45.63</v>
       </c>
     </row>
-    <row r="660" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A660" s="17" t="s">
         <v>60</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A661" s="15" t="s">
         <v>61</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>49.15</v>
       </c>
     </row>
-    <row r="662" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A662" s="17" t="s">
         <v>60</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A663" s="15" t="s">
         <v>61</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>44.99</v>
       </c>
     </row>
-    <row r="664" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A664" s="17" t="s">
         <v>60</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A665" s="15" t="s">
         <v>61</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>46.28</v>
       </c>
     </row>
-    <row r="666" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A666" s="17" t="s">
         <v>60</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A667" s="15" t="s">
         <v>61</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>40.03</v>
       </c>
     </row>
-    <row r="668" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A668" s="17" t="s">
         <v>60</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A669" s="15" t="s">
         <v>61</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>44.96</v>
       </c>
     </row>
-    <row r="670" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A670" s="17" t="s">
         <v>60</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A671" s="15" t="s">
         <v>61</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>44.16</v>
       </c>
     </row>
-    <row r="672" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A672" s="17" t="s">
         <v>60</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A673" s="15" t="s">
         <v>61</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>45.73</v>
       </c>
     </row>
-    <row r="674" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A674" s="17" t="s">
         <v>60</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A675" s="15" t="s">
         <v>61</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="676" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A676" s="17" t="s">
         <v>60</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A677" s="15" t="s">
         <v>61</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>42.14</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A678" s="17" t="s">
         <v>60</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A679" s="15" t="s">
         <v>61</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>43.72</v>
       </c>
     </row>
-    <row r="680" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A680" s="17" t="s">
         <v>60</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A681" s="15" t="s">
         <v>61</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>46.38</v>
       </c>
     </row>
-    <row r="682" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A682" s="17" t="s">
         <v>60</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A683" s="15" t="s">
         <v>61</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>37.03</v>
       </c>
     </row>
-    <row r="684" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A684" s="17" t="s">
         <v>60</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A685" s="15" t="s">
         <v>61</v>
       </c>
@@ -12955,7 +12955,7 @@
         <v>37.76</v>
       </c>
     </row>
-    <row r="686" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A686" s="17" t="s">
         <v>60</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A687" s="15" t="s">
         <v>61</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A688" s="17" t="s">
         <v>60</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A689" s="15" t="s">
         <v>61</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>38.14</v>
       </c>
     </row>
-    <row r="690" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A690" s="17" t="s">
         <v>60</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A691" s="15" t="s">
         <v>61</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="692" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A692" s="17" t="s">
         <v>60</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A693" s="15" t="s">
         <v>61</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>42.79</v>
       </c>
     </row>
-    <row r="694" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A694" s="17" t="s">
         <v>60</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A695" s="15" t="s">
         <v>61</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>42.99</v>
       </c>
     </row>
-    <row r="696" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A696" s="17" t="s">
         <v>60</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A697" s="15" t="s">
         <v>61</v>
       </c>
@@ -13123,7 +13123,7 @@
         <v>51.25</v>
       </c>
     </row>
-    <row r="698" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A698" s="17" t="s">
         <v>60</v>
       </c>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{073CE0A6-1300-4D2B-9143-6CB480421F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{128FBE75-E8C7-422C-BA2A-66754827B7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{128FBE75-E8C7-422C-BA2A-66754827B7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34648464-94E3-4268-B4D5-BB4FFC9EF469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34648464-94E3-4268-B4D5-BB4FFC9EF469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{344333E8-4D35-4460-8F78-8EB9DA453264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{344333E8-4D35-4460-8F78-8EB9DA453264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDA80A9F-EB23-4F1B-877F-890365271226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDA80A9F-EB23-4F1B-877F-890365271226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCCF611A-329E-4304-B4D7-44F97153F474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCCF611A-329E-4304-B4D7-44F97153F474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA972590-32DE-433B-807C-A53F2A8EA156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA972590-32DE-433B-807C-A53F2A8EA156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E60CE60C-85F4-4E3A-95BE-EC7D771CC5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E60CE60C-85F4-4E3A-95BE-EC7D771CC5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93D902C4-D0EF-43B2-96CC-5EDAF896BB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6984" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6995" uniqueCount="90">
   <si>
     <t>Delayed transition</t>
   </si>
@@ -291,6 +291,24 @@
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
+  <si>
+    <t>~tfm_ins-ts</t>
+  </si>
+  <si>
+    <t>Trd_electricity_exp</t>
+  </si>
+  <si>
+    <t>cap_bnd</t>
+  </si>
+  <si>
+    <t>fx</t>
+  </si>
+  <si>
+    <t>Trd_electricity_imp</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
 </sst>
 </file>
 
@@ -300,7 +318,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,8 +414,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +458,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +559,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -548,6 +579,14 @@
     <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -2460,6 +2499,56 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65AE358F-A30F-EF28-BE6B-E5497D5E5088}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5073650" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2780,7 +2869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AA34"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
@@ -2795,26 +2884,39 @@
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="5.265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B3" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B3,$B$7:$C$14,2,FALSE)</f>
         <v>Current Policies</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>1</v>
       </c>
@@ -2822,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>2</v>
       </c>
@@ -2833,7 +2935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>3</v>
       </c>
@@ -2844,7 +2946,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10">
         <v>4</v>
       </c>
@@ -2859,7 +2961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>5</v>
       </c>
@@ -2867,7 +2969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>6</v>
       </c>
@@ -2903,7 +3005,7 @@
         <v>359.90571658183768</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>7</v>
       </c>
@@ -2911,12 +3013,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:27" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
       <c r="Q14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G15" s="7">
         <v>2020</v>
       </c>
@@ -2972,7 +3074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G16" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q16,iamc_data!$I$2:$I$17119,Veda!G$15)</f>
         <v>6.3399999999999998E-2</v>
@@ -3377,7 +3479,7 @@
       </c>
     </row>
     <row r="27" spans="2:26" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="7:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G34" s="11">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!G$15)</f>
         <v>40.033700000000003</v>
@@ -3406,8 +3508,74 @@
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!M$15)</f>
         <v>50.828999999999994</v>
       </c>
+      <c r="Q34" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q35" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="R35" s="20">
+        <v>2024</v>
+      </c>
+      <c r="S35" s="20">
+        <v>2030</v>
+      </c>
+      <c r="T35" s="20">
+        <v>2040</v>
+      </c>
+      <c r="U35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V35" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="7:22" x14ac:dyDescent="0.45">
+      <c r="Q36" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="R36" s="22">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="S36" s="22">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="T36" s="22">
+        <v>3.93</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="V36" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="7:22" x14ac:dyDescent="0.45">
+      <c r="Q37" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="R37" s="24">
+        <v>10.647</v>
+      </c>
+      <c r="S37" s="24">
+        <v>11.752000000000001</v>
+      </c>
+      <c r="T37" s="24">
+        <v>13.252000000000001</v>
+      </c>
+      <c r="U37" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="V37" s="23" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93D902C4-D0EF-43B2-96CC-5EDAF896BB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EE929B9-D9F9-4C7F-8418-845A7572AB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2517,7 +2517,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65AE358F-A30F-EF28-BE6B-E5497D5E5088}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A894F96F-C0DC-E58E-AB35-6519725FE893}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EE929B9-D9F9-4C7F-8418-845A7572AB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CC96CD-3D68-44F5-BD45-7A69E502778F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6995" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6995" uniqueCount="88">
   <si>
     <t>Delayed transition</t>
   </si>
@@ -295,16 +295,10 @@
     <t>~tfm_ins-ts</t>
   </si>
   <si>
-    <t>Trd_electricity_exp</t>
-  </si>
-  <si>
     <t>cap_bnd</t>
   </si>
   <si>
     <t>fx</t>
-  </si>
-  <si>
-    <t>Trd_electricity_imp</t>
   </si>
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
@@ -559,7 +553,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -582,11 +576,6 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -2872,7 +2861,7 @@
   <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2890,7 +2879,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3513,66 +3502,69 @@
       </c>
     </row>
     <row r="35" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="Q35" s="20" t="s">
+      <c r="Q35" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R35" s="20">
+      <c r="R35" s="14">
         <v>2024</v>
       </c>
-      <c r="S35" s="20">
+      <c r="S35" s="14">
         <v>2030</v>
       </c>
-      <c r="T35" s="20">
+      <c r="T35" s="14">
         <v>2040</v>
       </c>
-      <c r="U35" s="20" t="s">
+      <c r="U35" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="V35" s="20" t="s">
+      <c r="V35" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="7:22" x14ac:dyDescent="0.45">
-      <c r="Q36" s="21" t="s">
+      <c r="Q36" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="R36" s="16">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="S36" s="16">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="T36" s="16">
+        <v>3.93</v>
+      </c>
+      <c r="U36" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="R36" s="22">
-        <v>1.5049999999999999</v>
-      </c>
-      <c r="S36" s="22">
-        <v>2.5049999999999999</v>
-      </c>
-      <c r="T36" s="22">
-        <v>3.93</v>
-      </c>
-      <c r="U36" s="21" t="s">
+      <c r="V36" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="V36" s="21" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="37" spans="7:22" x14ac:dyDescent="0.45">
-      <c r="Q37" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="R37" s="24">
+      <c r="Q37" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="R37" s="18">
         <v>10.647</v>
       </c>
-      <c r="S37" s="24">
+      <c r="S37" s="18">
         <v>11.752000000000001</v>
       </c>
-      <c r="T37" s="24">
+      <c r="T37" s="18">
         <v>13.252000000000001</v>
       </c>
-      <c r="U37" s="23" t="s">
+      <c r="U37" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V37" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="V37" s="23" t="s">
-        <v>87</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q29:Q30">
+    <sortCondition ref="Q29:Q30"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CC96CD-3D68-44F5-BD45-7A69E502778F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{595C5DDC-6E36-4249-9199-CA3C2500F598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
     <t>cap_bnd</t>
   </si>
   <si>
-    <t>fx</t>
+    <t>lo</t>
   </si>
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
@@ -553,7 +553,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -576,6 +576,11 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -2506,7 +2511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A894F96F-C0DC-E58E-AB35-6519725FE893}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FAE97B2-C3E0-0513-C89A-208AF2146391}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2861,7 +2866,7 @@
   <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2873,7 +2878,7 @@
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="5.265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.796875" bestFit="1" customWidth="1"/>
     <col min="18" max="22" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3502,69 +3507,66 @@
       </c>
     </row>
     <row r="35" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="Q35" s="14" t="s">
+      <c r="Q35" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R35" s="20">
         <v>2024</v>
       </c>
-      <c r="S35" s="14">
+      <c r="S35" s="20">
         <v>2030</v>
       </c>
-      <c r="T35" s="14">
+      <c r="T35" s="20">
         <v>2040</v>
       </c>
-      <c r="U35" s="14" t="s">
+      <c r="U35" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="V35" s="14" t="s">
+      <c r="V35" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="7:22" x14ac:dyDescent="0.45">
-      <c r="Q36" s="15" t="s">
+      <c r="Q36" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="R36" s="16">
+      <c r="R36" s="22">
         <v>1.5049999999999999</v>
       </c>
-      <c r="S36" s="16">
+      <c r="S36" s="22">
         <v>2.5049999999999999</v>
       </c>
-      <c r="T36" s="16">
+      <c r="T36" s="22">
         <v>3.93</v>
       </c>
-      <c r="U36" s="15" t="s">
+      <c r="U36" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="V36" s="15" t="s">
+      <c r="V36" s="21" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="37" spans="7:22" x14ac:dyDescent="0.45">
-      <c r="Q37" s="17" t="s">
+      <c r="Q37" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="R37" s="18">
+      <c r="R37" s="24">
         <v>10.647</v>
       </c>
-      <c r="S37" s="18">
+      <c r="S37" s="24">
         <v>11.752000000000001</v>
       </c>
-      <c r="T37" s="18">
+      <c r="T37" s="24">
         <v>13.252000000000001</v>
       </c>
-      <c r="U37" s="17" t="s">
+      <c r="U37" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V37" s="17" t="s">
+      <c r="V37" s="23" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q29:Q30">
-    <sortCondition ref="Q29:Q30"/>
-  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{595C5DDC-6E36-4249-9199-CA3C2500F598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CEBEC80-2FBD-4804-A30B-FF13AC96E5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2511,7 +2511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FAE97B2-C3E0-0513-C89A-208AF2146391}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C87D2CE-019E-53CF-1EFA-E81723B76E89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CEBEC80-2FBD-4804-A30B-FF13AC96E5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6266A07B-7A29-4703-B1EA-C102C6800D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2511,7 +2511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C87D2CE-019E-53CF-1EFA-E81723B76E89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4DB32F2-8252-398B-6470-E241DFABC2F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6266A07B-7A29-4703-B1EA-C102C6800D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81BACBAE-B876-4782-A75D-47BF326301BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2511,7 +2511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4DB32F2-8252-398B-6470-E241DFABC2F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDC2F0E-84EE-BCBF-4E09-A948D9077772}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
